--- a/data/trans_orig/P6607-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P6607-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C94127C1-CD49-43B8-B5CC-C061726664B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{185D0EA5-4894-41BF-9CE9-771E27E69AEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C842B944-C7BB-4249-9970-E9FBA3E90885}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{DC4844D1-8A74-4854-8578-28CB18EA724F}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1437" uniqueCount="878">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1437" uniqueCount="871">
   <si>
     <t>Población según la exposición a trabajos al aire libre en su trabajo en 2012 (Tasa respuesta: 33,84%)</t>
   </si>
@@ -91,10 +91,10 @@
     <t>34,02%</t>
   </si>
   <si>
-    <t>26,47%</t>
-  </si>
-  <si>
-    <t>41,35%</t>
+    <t>27,11%</t>
+  </si>
+  <si>
+    <t>42,06%</t>
   </si>
   <si>
     <t>67,65%</t>
@@ -103,2560 +103,2542 @@
     <t>57,91%</t>
   </si>
   <si>
-    <t>75,48%</t>
+    <t>75,8%</t>
   </si>
   <si>
     <t>48,01%</t>
   </si>
   <si>
-    <t>41,81%</t>
-  </si>
-  <si>
-    <t>54,29%</t>
+    <t>41,52%</t>
+  </si>
+  <si>
+    <t>54,27%</t>
   </si>
   <si>
     <t>16,54%</t>
   </si>
   <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>23,35%</t>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>23,49%</t>
   </si>
   <si>
     <t>19,27%</t>
   </si>
   <si>
-    <t>13,41%</t>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>27,61%</t>
+  </si>
+  <si>
+    <t>17,67%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>22,71%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>26,22%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>30,23%</t>
+  </si>
+  <si>
+    <t>23,16%</t>
+  </si>
+  <si>
+    <t>37,4%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>21,45%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>27,03%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>30,82%</t>
+  </si>
+  <si>
+    <t>23,45%</t>
+  </si>
+  <si>
+    <t>38,72%</t>
+  </si>
+  <si>
+    <t>74,65%</t>
+  </si>
+  <si>
+    <t>63,72%</t>
+  </si>
+  <si>
+    <t>83,87%</t>
+  </si>
+  <si>
+    <t>46,89%</t>
+  </si>
+  <si>
+    <t>40,12%</t>
+  </si>
+  <si>
+    <t>53,58%</t>
+  </si>
+  <si>
+    <t>28,32%</t>
+  </si>
+  <si>
+    <t>20,89%</t>
+  </si>
+  <si>
+    <t>35,64%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>21,89%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>27,94%</t>
+  </si>
+  <si>
+    <t>22,3%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>29,34%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>21,66%</t>
+  </si>
+  <si>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>26,78%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>19,97%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>41,07%</t>
+  </si>
+  <si>
+    <t>34,7%</t>
+  </si>
+  <si>
+    <t>47,32%</t>
+  </si>
+  <si>
+    <t>76,49%</t>
+  </si>
+  <si>
+    <t>69,75%</t>
+  </si>
+  <si>
+    <t>82,7%</t>
+  </si>
+  <si>
+    <t>55,77%</t>
+  </si>
+  <si>
+    <t>51,06%</t>
+  </si>
+  <si>
+    <t>60,85%</t>
+  </si>
+  <si>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>23,73%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>22,34%</t>
+  </si>
+  <si>
+    <t>17,68%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>17,57%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>23,12%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>22,98%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>28,98%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>33,74%</t>
+  </si>
+  <si>
+    <t>23,06%</t>
+  </si>
+  <si>
+    <t>45,35%</t>
+  </si>
+  <si>
+    <t>75,56%</t>
+  </si>
+  <si>
+    <t>62,89%</t>
+  </si>
+  <si>
+    <t>86,43%</t>
+  </si>
+  <si>
+    <t>50,75%</t>
+  </si>
+  <si>
+    <t>42,77%</t>
+  </si>
+  <si>
+    <t>59,03%</t>
+  </si>
+  <si>
+    <t>23,9%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>35,32%</t>
+  </si>
+  <si>
+    <t>19,37%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>30,76%</t>
+  </si>
+  <si>
+    <t>22,06%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>29,52%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>20,73%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>30,33%</t>
+  </si>
+  <si>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>41,4%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>27,58%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>37,11%</t>
+  </si>
+  <si>
+    <t>28,53%</t>
+  </si>
+  <si>
+    <t>47,05%</t>
+  </si>
+  <si>
+    <t>65,83%</t>
+  </si>
+  <si>
+    <t>53,19%</t>
+  </si>
+  <si>
+    <t>78,07%</t>
+  </si>
+  <si>
+    <t>46,26%</t>
+  </si>
+  <si>
+    <t>38,54%</t>
+  </si>
+  <si>
+    <t>54,72%</t>
+  </si>
+  <si>
+    <t>26,73%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>35,59%</t>
+  </si>
+  <si>
+    <t>21,53%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>34,72%</t>
+  </si>
+  <si>
+    <t>25,07%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>32,28%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>30,03%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>22,92%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>43,97%</t>
+  </si>
+  <si>
+    <t>37,86%</t>
+  </si>
+  <si>
+    <t>49,68%</t>
+  </si>
+  <si>
+    <t>73,24%</t>
+  </si>
+  <si>
+    <t>79,37%</t>
+  </si>
+  <si>
+    <t>55,7%</t>
+  </si>
+  <si>
+    <t>50,69%</t>
+  </si>
+  <si>
+    <t>60,65%</t>
+  </si>
+  <si>
+    <t>22,04%</t>
+  </si>
+  <si>
+    <t>16,96%</t>
+  </si>
+  <si>
+    <t>27,64%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>23,14%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>48,8%</t>
+  </si>
+  <si>
+    <t>43,59%</t>
+  </si>
+  <si>
+    <t>54,26%</t>
+  </si>
+  <si>
+    <t>73,11%</t>
+  </si>
+  <si>
+    <t>66,56%</t>
+  </si>
+  <si>
+    <t>78,03%</t>
+  </si>
+  <si>
+    <t>58,99%</t>
+  </si>
+  <si>
+    <t>55,01%</t>
+  </si>
+  <si>
+    <t>62,83%</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>23,85%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>20,16%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>24,87%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>40,95%</t>
+  </si>
+  <si>
+    <t>38,06%</t>
+  </si>
+  <si>
+    <t>43,41%</t>
+  </si>
+  <si>
+    <t>72,96%</t>
+  </si>
+  <si>
+    <t>69,7%</t>
+  </si>
+  <si>
+    <t>75,65%</t>
+  </si>
+  <si>
+    <t>53,79%</t>
+  </si>
+  <si>
+    <t>51,67%</t>
+  </si>
+  <si>
+    <t>56,05%</t>
+  </si>
+  <si>
+    <t>21,13%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>23,5%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>18,75%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>20,68%</t>
+  </si>
+  <si>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>16,57%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según la exposición a trabajos al aire libre en su trabajo en 2015 (Tasa respuesta: 35,39%)</t>
+  </si>
+  <si>
+    <t>30,99%</t>
+  </si>
+  <si>
+    <t>23,18%</t>
+  </si>
+  <si>
+    <t>40,35%</t>
+  </si>
+  <si>
+    <t>75,64%</t>
+  </si>
+  <si>
+    <t>65,7%</t>
+  </si>
+  <si>
+    <t>50,08%</t>
+  </si>
+  <si>
+    <t>44,01%</t>
+  </si>
+  <si>
+    <t>56,6%</t>
+  </si>
+  <si>
+    <t>31,87%</t>
+  </si>
+  <si>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>40,37%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>22,76%</t>
+  </si>
+  <si>
+    <t>24,23%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>30,37%</t>
+  </si>
+  <si>
+    <t>17,12%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>25,3%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>28,55%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>26,82%</t>
+  </si>
+  <si>
+    <t>41,24%</t>
+  </si>
+  <si>
+    <t>64,31%</t>
+  </si>
+  <si>
+    <t>54,59%</t>
+  </si>
+  <si>
+    <t>73,12%</t>
+  </si>
+  <si>
+    <t>45,98%</t>
+  </si>
+  <si>
+    <t>39,66%</t>
+  </si>
+  <si>
+    <t>52,17%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>24,58%</t>
+  </si>
+  <si>
+    <t>20,07%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>25,22%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>31,51%</t>
+  </si>
+  <si>
+    <t>24,11%</t>
+  </si>
+  <si>
+    <t>39,32%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>24,7%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>30,15%</t>
+  </si>
+  <si>
+    <t>39,98%</t>
+  </si>
+  <si>
+    <t>31,96%</t>
+  </si>
+  <si>
+    <t>48,41%</t>
+  </si>
+  <si>
+    <t>68,58%</t>
+  </si>
+  <si>
+    <t>58,08%</t>
+  </si>
+  <si>
+    <t>78,19%</t>
+  </si>
+  <si>
+    <t>51,48%</t>
+  </si>
+  <si>
+    <t>45,05%</t>
+  </si>
+  <si>
+    <t>58,22%</t>
+  </si>
+  <si>
+    <t>23,51%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>31,89%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>27,63%</t>
+  </si>
+  <si>
+    <t>21,43%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>26,99%</t>
+  </si>
+  <si>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>28,33%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>32,77%</t>
+  </si>
+  <si>
+    <t>24,01%</t>
+  </si>
+  <si>
+    <t>41,76%</t>
+  </si>
+  <si>
+    <t>75,1%</t>
+  </si>
+  <si>
+    <t>83,22%</t>
+  </si>
+  <si>
+    <t>50,72%</t>
+  </si>
+  <si>
+    <t>43,28%</t>
+  </si>
+  <si>
+    <t>57,85%</t>
+  </si>
+  <si>
+    <t>20,38%</t>
+  </si>
+  <si>
+    <t>27,88%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>24,56%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>24,55%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>27,52%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>28,01%</t>
+  </si>
+  <si>
+    <t>37,46%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>25,17%</t>
+  </si>
+  <si>
+    <t>26,21%</t>
+  </si>
+  <si>
+    <t>38,24%</t>
+  </si>
+  <si>
+    <t>64,16%</t>
+  </si>
+  <si>
+    <t>51,56%</t>
+  </si>
+  <si>
+    <t>76,12%</t>
+  </si>
+  <si>
+    <t>41,74%</t>
+  </si>
+  <si>
+    <t>33,15%</t>
+  </si>
+  <si>
+    <t>50,03%</t>
+  </si>
+  <si>
+    <t>22,75%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>34,24%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>25,94%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>27,3%</t>
+  </si>
+  <si>
+    <t>21,74%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>32,99%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>23,13%</t>
+  </si>
+  <si>
+    <t>29,3%</t>
+  </si>
+  <si>
+    <t>19,67%</t>
+  </si>
+  <si>
+    <t>39,72%</t>
+  </si>
+  <si>
+    <t>14,23%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>24,4%</t>
+  </si>
+  <si>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>30,49%</t>
+  </si>
+  <si>
+    <t>32,55%</t>
+  </si>
+  <si>
+    <t>23,79%</t>
+  </si>
+  <si>
+    <t>41,44%</t>
+  </si>
+  <si>
+    <t>89,23%</t>
+  </si>
+  <si>
+    <t>81,08%</t>
+  </si>
+  <si>
+    <t>95,33%</t>
+  </si>
+  <si>
+    <t>55,95%</t>
+  </si>
+  <si>
+    <t>48,46%</t>
+  </si>
+  <si>
+    <t>62,42%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>24,79%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>26,97%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>41,55%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>25,81%</t>
+  </si>
+  <si>
+    <t>38,02%</t>
+  </si>
+  <si>
+    <t>32,7%</t>
+  </si>
+  <si>
+    <t>43,27%</t>
+  </si>
+  <si>
+    <t>58,64%</t>
+  </si>
+  <si>
+    <t>52,68%</t>
+  </si>
+  <si>
+    <t>64,25%</t>
+  </si>
+  <si>
+    <t>47,15%</t>
+  </si>
+  <si>
+    <t>43,16%</t>
+  </si>
+  <si>
+    <t>51,15%</t>
+  </si>
+  <si>
+    <t>35,58%</t>
+  </si>
+  <si>
+    <t>30,1%</t>
+  </si>
+  <si>
+    <t>41,01%</t>
+  </si>
+  <si>
+    <t>29,63%</t>
+  </si>
+  <si>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>35,19%</t>
+  </si>
+  <si>
+    <t>32,95%</t>
+  </si>
+  <si>
+    <t>29,56%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>51,59%</t>
+  </si>
+  <si>
+    <t>46,12%</t>
+  </si>
+  <si>
+    <t>57,64%</t>
+  </si>
+  <si>
+    <t>75,91%</t>
+  </si>
+  <si>
+    <t>70,25%</t>
+  </si>
+  <si>
+    <t>81,03%</t>
+  </si>
+  <si>
+    <t>61,91%</t>
+  </si>
+  <si>
+    <t>57,53%</t>
+  </si>
+  <si>
+    <t>65,68%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>24,99%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>21,29%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>19,92%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>38,64%</t>
+  </si>
+  <si>
+    <t>35,9%</t>
+  </si>
+  <si>
+    <t>41,46%</t>
+  </si>
+  <si>
+    <t>69,56%</t>
+  </si>
+  <si>
+    <t>66,61%</t>
+  </si>
+  <si>
+    <t>72,63%</t>
+  </si>
+  <si>
+    <t>51,72%</t>
+  </si>
+  <si>
+    <t>49,59%</t>
+  </si>
+  <si>
+    <t>53,81%</t>
+  </si>
+  <si>
+    <t>25,64%</t>
+  </si>
+  <si>
+    <t>23,38%</t>
+  </si>
+  <si>
+    <t>28,2%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>21,08%</t>
+  </si>
+  <si>
+    <t>22,64%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>24,35%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>18,54%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>Población según la exposición a trabajos al aire libre en su trabajo en 2023 (Tasa respuesta: 20,52%)</t>
+  </si>
+  <si>
+    <t>40,39%</t>
+  </si>
+  <si>
+    <t>52,38%</t>
+  </si>
+  <si>
+    <t>81,81%</t>
+  </si>
+  <si>
+    <t>74,1%</t>
+  </si>
+  <si>
+    <t>88,11%</t>
+  </si>
+  <si>
+    <t>58,14%</t>
+  </si>
+  <si>
+    <t>51,2%</t>
+  </si>
+  <si>
+    <t>65,24%</t>
+  </si>
+  <si>
+    <t>37,8%</t>
+  </si>
+  <si>
+    <t>27,26%</t>
+  </si>
+  <si>
+    <t>48,67%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>23,02%</t>
+  </si>
+  <si>
+    <t>28,4%</t>
+  </si>
+  <si>
+    <t>22,03%</t>
+  </si>
+  <si>
+    <t>35,66%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>23,4%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>29,88%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>39,1%</t>
+  </si>
+  <si>
+    <t>73,06%</t>
+  </si>
+  <si>
+    <t>63,14%</t>
+  </si>
+  <si>
+    <t>81,17%</t>
+  </si>
+  <si>
+    <t>47,58%</t>
+  </si>
+  <si>
+    <t>39,63%</t>
+  </si>
+  <si>
+    <t>54,86%</t>
+  </si>
+  <si>
+    <t>31,36%</t>
+  </si>
+  <si>
+    <t>22,95%</t>
+  </si>
+  <si>
+    <t>41,56%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>24,17%</t>
+  </si>
+  <si>
+    <t>24,69%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>31,99%</t>
+  </si>
+  <si>
+    <t>24,15%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>34,65%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>22,73%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>29,21%</t>
+  </si>
+  <si>
+    <t>41,99%</t>
+  </si>
+  <si>
+    <t>52,75%</t>
+  </si>
+  <si>
+    <t>42,2%</t>
+  </si>
+  <si>
+    <t>63,87%</t>
+  </si>
+  <si>
+    <t>40,63%</t>
+  </si>
+  <si>
+    <t>32,31%</t>
+  </si>
+  <si>
+    <t>48,71%</t>
+  </si>
+  <si>
+    <t>28,19%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>40,41%</t>
+  </si>
+  <si>
+    <t>34,45%</t>
+  </si>
+  <si>
+    <t>24,68%</t>
+  </si>
+  <si>
+    <t>46,06%</t>
+  </si>
+  <si>
+    <t>31,23%</t>
+  </si>
+  <si>
+    <t>23,98%</t>
+  </si>
+  <si>
+    <t>40,06%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>26,75%</t>
+  </si>
+  <si>
+    <t>16,47%</t>
+  </si>
+  <si>
+    <t>39,45%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>23,47%</t>
+  </si>
+  <si>
+    <t>59,61%</t>
+  </si>
+  <si>
+    <t>46,27%</t>
+  </si>
+  <si>
+    <t>72,45%</t>
+  </si>
+  <si>
+    <t>73,35%</t>
+  </si>
+  <si>
+    <t>49,08%</t>
+  </si>
+  <si>
+    <t>85,75%</t>
+  </si>
+  <si>
+    <t>66,08%</t>
+  </si>
+  <si>
+    <t>54,23%</t>
+  </si>
+  <si>
+    <t>74,84%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>20,71%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>42,55%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>28,35%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>21,25%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>21,7%</t>
+  </si>
+  <si>
+    <t>34,29%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>23,58%</t>
+  </si>
+  <si>
+    <t>46,02%</t>
+  </si>
+  <si>
+    <t>32,46%</t>
+  </si>
+  <si>
+    <t>59,31%</t>
+  </si>
+  <si>
+    <t>69,86%</t>
+  </si>
+  <si>
+    <t>58,51%</t>
+  </si>
+  <si>
+    <t>80,48%</t>
+  </si>
+  <si>
+    <t>57,84%</t>
+  </si>
+  <si>
+    <t>49,4%</t>
+  </si>
+  <si>
+    <t>66,38%</t>
+  </si>
+  <si>
+    <t>38,1%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>23,8%</t>
+  </si>
+  <si>
+    <t>19,74%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>27,93%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>24,97%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>17,7%</t>
+  </si>
+  <si>
+    <t>29,5%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>25,76%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>23,81%</t>
+  </si>
+  <si>
+    <t>42,0%</t>
+  </si>
+  <si>
+    <t>29,92%</t>
+  </si>
+  <si>
+    <t>53,05%</t>
+  </si>
+  <si>
+    <t>70,65%</t>
+  </si>
+  <si>
+    <t>58,01%</t>
+  </si>
+  <si>
+    <t>79,77%</t>
+  </si>
+  <si>
+    <t>54,0%</t>
+  </si>
+  <si>
+    <t>45,72%</t>
+  </si>
+  <si>
+    <t>62,01%</t>
+  </si>
+  <si>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>32,11%</t>
+  </si>
+  <si>
+    <t>17,15%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>27,08%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>27,24%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>25,97%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>19,36%</t>
+  </si>
+  <si>
+    <t>20,32%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>31,44%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>19,17%</t>
+  </si>
+  <si>
+    <t>57,34%</t>
+  </si>
+  <si>
+    <t>48,12%</t>
+  </si>
+  <si>
+    <t>65,64%</t>
+  </si>
+  <si>
+    <t>81,27%</t>
+  </si>
+  <si>
+    <t>74,33%</t>
+  </si>
+  <si>
+    <t>86,23%</t>
+  </si>
+  <si>
+    <t>68,75%</t>
+  </si>
+  <si>
+    <t>62,73%</t>
+  </si>
+  <si>
+    <t>73,78%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>25,71%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>23,84%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
   </si>
   <si>
     <t>28,22%</t>
   </si>
   <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>22,17%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>26,46%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>30,23%</t>
-  </si>
-  <si>
-    <t>22,9%</t>
-  </si>
-  <si>
-    <t>38,33%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>21,45%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>26,52%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>30,82%</t>
-  </si>
-  <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>38,69%</t>
-  </si>
-  <si>
-    <t>74,65%</t>
-  </si>
-  <si>
-    <t>64,21%</t>
-  </si>
-  <si>
-    <t>83,32%</t>
-  </si>
-  <si>
-    <t>46,89%</t>
-  </si>
-  <si>
-    <t>40,17%</t>
-  </si>
-  <si>
-    <t>53,08%</t>
-  </si>
-  <si>
-    <t>28,32%</t>
-  </si>
-  <si>
-    <t>21,03%</t>
-  </si>
-  <si>
-    <t>35,59%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>21,89%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>28,25%</t>
-  </si>
-  <si>
-    <t>22,3%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>29,19%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>22,21%</t>
-  </si>
-  <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>25,91%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>19,6%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>41,07%</t>
-  </si>
-  <si>
-    <t>34,7%</t>
-  </si>
-  <si>
-    <t>47,81%</t>
-  </si>
-  <si>
-    <t>76,49%</t>
-  </si>
-  <si>
-    <t>69,65%</t>
-  </si>
-  <si>
-    <t>82,5%</t>
-  </si>
-  <si>
-    <t>55,77%</t>
-  </si>
-  <si>
-    <t>50,41%</t>
-  </si>
-  <si>
-    <t>60,53%</t>
-  </si>
-  <si>
-    <t>18,38%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>23,7%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>22,67%</t>
-  </si>
-  <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>21,56%</t>
-  </si>
-  <si>
-    <t>17,57%</t>
-  </si>
-  <si>
-    <t>23,54%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>22,98%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>28,92%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>33,74%</t>
-  </si>
-  <si>
-    <t>23,61%</t>
-  </si>
-  <si>
-    <t>45,48%</t>
-  </si>
-  <si>
-    <t>75,56%</t>
-  </si>
-  <si>
-    <t>61,38%</t>
-  </si>
-  <si>
-    <t>84,83%</t>
-  </si>
-  <si>
-    <t>50,75%</t>
-  </si>
-  <si>
-    <t>42,3%</t>
-  </si>
-  <si>
-    <t>59,38%</t>
-  </si>
-  <si>
-    <t>23,9%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>34,72%</t>
-  </si>
-  <si>
-    <t>19,37%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>31,25%</t>
-  </si>
-  <si>
-    <t>22,06%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>29,96%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>30,33%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>42,96%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>27,39%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>37,11%</t>
-  </si>
-  <si>
-    <t>28,43%</t>
-  </si>
-  <si>
-    <t>46,61%</t>
-  </si>
-  <si>
-    <t>65,83%</t>
-  </si>
-  <si>
-    <t>51,79%</t>
-  </si>
-  <si>
-    <t>77,75%</t>
-  </si>
-  <si>
-    <t>46,26%</t>
-  </si>
-  <si>
-    <t>38,6%</t>
-  </si>
-  <si>
-    <t>54,44%</t>
-  </si>
-  <si>
-    <t>26,73%</t>
-  </si>
-  <si>
-    <t>19,02%</t>
-  </si>
-  <si>
-    <t>36,37%</t>
-  </si>
-  <si>
-    <t>21,53%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>34,56%</t>
-  </si>
-  <si>
-    <t>25,07%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>32,01%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>24,16%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>18,67%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>29,46%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>22,37%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>43,97%</t>
-  </si>
-  <si>
-    <t>37,87%</t>
-  </si>
-  <si>
-    <t>50,51%</t>
-  </si>
-  <si>
-    <t>73,24%</t>
-  </si>
-  <si>
-    <t>65,95%</t>
-  </si>
-  <si>
-    <t>79,58%</t>
-  </si>
-  <si>
-    <t>55,7%</t>
-  </si>
-  <si>
-    <t>51,15%</t>
-  </si>
-  <si>
-    <t>60,32%</t>
-  </si>
-  <si>
-    <t>22,04%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>26,87%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>22,99%</t>
-  </si>
-  <si>
-    <t>17,73%</t>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>36,69%</t>
+  </si>
+  <si>
+    <t>61,63%</t>
+  </si>
+  <si>
+    <t>54,5%</t>
+  </si>
+  <si>
+    <t>68,78%</t>
+  </si>
+  <si>
+    <t>40,08%</t>
+  </si>
+  <si>
+    <t>27,91%</t>
+  </si>
+  <si>
+    <t>47,08%</t>
+  </si>
+  <si>
+    <t>20,88%</t>
+  </si>
+  <si>
+    <t>27,96%</t>
+  </si>
+  <si>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>27,34%</t>
+  </si>
+  <si>
+    <t>20,94%</t>
   </si>
   <si>
     <t>13,35%</t>
   </si>
   <si>
-    <t>23,29%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>48,8%</t>
-  </si>
-  <si>
-    <t>43,29%</t>
-  </si>
-  <si>
-    <t>54,11%</t>
-  </si>
-  <si>
-    <t>73,11%</t>
-  </si>
-  <si>
-    <t>66,28%</t>
-  </si>
-  <si>
-    <t>78,63%</t>
-  </si>
-  <si>
-    <t>58,99%</t>
-  </si>
-  <si>
-    <t>54,95%</t>
-  </si>
-  <si>
-    <t>62,87%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>23,65%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>19,69%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>20,16%</t>
-  </si>
-  <si>
-    <t>16,68%</t>
-  </si>
-  <si>
-    <t>24,53%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>40,95%</t>
-  </si>
-  <si>
-    <t>38,32%</t>
-  </si>
-  <si>
-    <t>43,49%</t>
-  </si>
-  <si>
-    <t>72,96%</t>
-  </si>
-  <si>
-    <t>69,76%</t>
-  </si>
-  <si>
-    <t>75,55%</t>
-  </si>
-  <si>
-    <t>53,79%</t>
-  </si>
-  <si>
-    <t>51,56%</t>
-  </si>
-  <si>
-    <t>55,8%</t>
-  </si>
-  <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>18,86%</t>
-  </si>
-  <si>
-    <t>23,59%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>18,46%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>20,76%</t>
-  </si>
-  <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>20,65%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según la exposición a trabajos al aire libre en su trabajo en 2015 (Tasa respuesta: 35,39%)</t>
-  </si>
-  <si>
-    <t>30,99%</t>
-  </si>
-  <si>
-    <t>23,18%</t>
-  </si>
-  <si>
-    <t>40,35%</t>
-  </si>
-  <si>
-    <t>75,64%</t>
-  </si>
-  <si>
-    <t>65,7%</t>
-  </si>
-  <si>
-    <t>83,87%</t>
-  </si>
-  <si>
-    <t>50,08%</t>
-  </si>
-  <si>
-    <t>44,01%</t>
-  </si>
-  <si>
-    <t>56,6%</t>
-  </si>
-  <si>
-    <t>31,87%</t>
-  </si>
-  <si>
-    <t>23,76%</t>
-  </si>
-  <si>
-    <t>40,37%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>22,76%</t>
-  </si>
-  <si>
-    <t>24,23%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>30,37%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>25,3%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>28,55%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>26,82%</t>
-  </si>
-  <si>
-    <t>41,24%</t>
-  </si>
-  <si>
-    <t>64,31%</t>
-  </si>
-  <si>
-    <t>54,59%</t>
-  </si>
-  <si>
-    <t>73,12%</t>
-  </si>
-  <si>
-    <t>45,98%</t>
-  </si>
-  <si>
-    <t>39,66%</t>
-  </si>
-  <si>
-    <t>52,17%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>28,98%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>24,58%</t>
-  </si>
-  <si>
-    <t>20,07%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>25,22%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>31,51%</t>
-  </si>
-  <si>
-    <t>24,11%</t>
-  </si>
-  <si>
-    <t>39,32%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>22,26%</t>
-  </si>
-  <si>
-    <t>24,7%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>30,15%</t>
-  </si>
-  <si>
-    <t>39,98%</t>
-  </si>
-  <si>
-    <t>31,96%</t>
-  </si>
-  <si>
-    <t>48,41%</t>
-  </si>
-  <si>
-    <t>68,58%</t>
-  </si>
-  <si>
-    <t>58,08%</t>
-  </si>
-  <si>
-    <t>78,19%</t>
-  </si>
-  <si>
-    <t>51,48%</t>
-  </si>
-  <si>
-    <t>45,05%</t>
-  </si>
-  <si>
-    <t>58,22%</t>
-  </si>
-  <si>
-    <t>23,51%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
-  </si>
-  <si>
-    <t>31,89%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>27,63%</t>
-  </si>
-  <si>
-    <t>21,43%</t>
-  </si>
-  <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>26,99%</t>
-  </si>
-  <si>
-    <t>20,53%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>28,33%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>32,77%</t>
-  </si>
-  <si>
-    <t>24,01%</t>
-  </si>
-  <si>
-    <t>41,76%</t>
-  </si>
-  <si>
-    <t>75,1%</t>
-  </si>
-  <si>
-    <t>63,72%</t>
-  </si>
-  <si>
-    <t>83,22%</t>
-  </si>
-  <si>
-    <t>50,72%</t>
-  </si>
-  <si>
-    <t>43,28%</t>
-  </si>
-  <si>
-    <t>57,85%</t>
-  </si>
-  <si>
-    <t>20,38%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>27,88%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>24,56%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>24,55%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>27,52%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>28,01%</t>
-  </si>
-  <si>
-    <t>37,46%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>25,17%</t>
-  </si>
-  <si>
-    <t>26,21%</t>
-  </si>
-  <si>
-    <t>38,24%</t>
-  </si>
-  <si>
-    <t>64,16%</t>
-  </si>
-  <si>
-    <t>76,12%</t>
-  </si>
-  <si>
-    <t>41,74%</t>
-  </si>
-  <si>
-    <t>33,15%</t>
-  </si>
-  <si>
-    <t>50,03%</t>
-  </si>
-  <si>
-    <t>22,75%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>34,24%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>25,94%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>27,3%</t>
-  </si>
-  <si>
-    <t>21,74%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>32,99%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>23,13%</t>
-  </si>
-  <si>
-    <t>29,3%</t>
-  </si>
-  <si>
-    <t>19,67%</t>
-  </si>
-  <si>
-    <t>39,72%</t>
-  </si>
-  <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>24,4%</t>
-  </si>
-  <si>
-    <t>16,56%</t>
-  </si>
-  <si>
-    <t>30,49%</t>
-  </si>
-  <si>
-    <t>32,55%</t>
-  </si>
-  <si>
-    <t>23,79%</t>
-  </si>
-  <si>
-    <t>41,44%</t>
-  </si>
-  <si>
-    <t>89,23%</t>
-  </si>
-  <si>
-    <t>81,08%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>55,95%</t>
-  </si>
-  <si>
-    <t>48,46%</t>
-  </si>
-  <si>
-    <t>62,42%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>24,79%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>26,97%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>23,85%</t>
-  </si>
-  <si>
-    <t>41,55%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>25,81%</t>
-  </si>
-  <si>
-    <t>38,02%</t>
-  </si>
-  <si>
-    <t>32,7%</t>
-  </si>
-  <si>
-    <t>43,27%</t>
-  </si>
-  <si>
-    <t>58,64%</t>
-  </si>
-  <si>
-    <t>52,68%</t>
-  </si>
-  <si>
-    <t>64,25%</t>
-  </si>
-  <si>
-    <t>47,15%</t>
-  </si>
-  <si>
-    <t>43,16%</t>
-  </si>
-  <si>
-    <t>35,58%</t>
-  </si>
-  <si>
-    <t>30,1%</t>
-  </si>
-  <si>
-    <t>41,01%</t>
-  </si>
-  <si>
-    <t>29,63%</t>
-  </si>
-  <si>
-    <t>24,52%</t>
-  </si>
-  <si>
-    <t>35,19%</t>
-  </si>
-  <si>
-    <t>32,95%</t>
-  </si>
-  <si>
-    <t>29,56%</t>
-  </si>
-  <si>
-    <t>37,4%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>51,59%</t>
-  </si>
-  <si>
-    <t>46,12%</t>
-  </si>
-  <si>
-    <t>57,64%</t>
-  </si>
-  <si>
-    <t>75,91%</t>
-  </si>
-  <si>
-    <t>70,25%</t>
-  </si>
-  <si>
-    <t>81,03%</t>
-  </si>
-  <si>
-    <t>61,91%</t>
-  </si>
-  <si>
-    <t>57,53%</t>
-  </si>
-  <si>
-    <t>65,68%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>24,99%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>19,92%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>38,64%</t>
-  </si>
-  <si>
-    <t>35,9%</t>
-  </si>
-  <si>
-    <t>41,46%</t>
-  </si>
-  <si>
-    <t>69,56%</t>
-  </si>
-  <si>
-    <t>66,61%</t>
-  </si>
-  <si>
-    <t>72,63%</t>
-  </si>
-  <si>
-    <t>51,72%</t>
-  </si>
-  <si>
-    <t>49,59%</t>
-  </si>
-  <si>
-    <t>53,81%</t>
-  </si>
-  <si>
-    <t>25,64%</t>
-  </si>
-  <si>
-    <t>23,38%</t>
-  </si>
-  <si>
-    <t>28,2%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>21,08%</t>
-  </si>
-  <si>
-    <t>22,64%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>24,35%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>18,54%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>Población según la exposición a trabajos al aire libre en su trabajo en 2023 (Tasa respuesta: 20,52%)</t>
-  </si>
-  <si>
-    <t>40,39%</t>
-  </si>
-  <si>
-    <t>29,95%</t>
-  </si>
-  <si>
-    <t>52,46%</t>
-  </si>
-  <si>
-    <t>81,81%</t>
-  </si>
-  <si>
-    <t>73,78%</t>
-  </si>
-  <si>
-    <t>88,28%</t>
-  </si>
-  <si>
-    <t>58,14%</t>
-  </si>
-  <si>
-    <t>50,06%</t>
-  </si>
-  <si>
-    <t>65,62%</t>
-  </si>
-  <si>
-    <t>37,8%</t>
-  </si>
-  <si>
-    <t>27,6%</t>
-  </si>
-  <si>
-    <t>48,91%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>28,4%</t>
-  </si>
-  <si>
-    <t>21,75%</t>
-  </si>
-  <si>
-    <t>35,38%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
+    <t>26,06%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
   </si>
   <si>
     <t>5,5%</t>
   </si>
   <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>19,23%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>29,88%</t>
-  </si>
-  <si>
-    <t>21,15%</t>
-  </si>
-  <si>
-    <t>40,16%</t>
-  </si>
-  <si>
-    <t>73,06%</t>
-  </si>
-  <si>
-    <t>63,69%</t>
-  </si>
-  <si>
-    <t>80,53%</t>
-  </si>
-  <si>
-    <t>47,58%</t>
-  </si>
-  <si>
-    <t>39,64%</t>
-  </si>
-  <si>
-    <t>54,89%</t>
-  </si>
-  <si>
-    <t>31,36%</t>
-  </si>
-  <si>
-    <t>43,5%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>22,35%</t>
-  </si>
-  <si>
-    <t>24,69%</t>
-  </si>
-  <si>
-    <t>18,4%</t>
-  </si>
-  <si>
-    <t>31,73%</t>
-  </si>
-  <si>
-    <t>24,15%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>34,05%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>18,43%</t>
-  </si>
-  <si>
-    <t>29,21%</t>
-  </si>
-  <si>
-    <t>40,11%</t>
-  </si>
-  <si>
-    <t>52,75%</t>
-  </si>
-  <si>
-    <t>42,61%</t>
-  </si>
-  <si>
-    <t>64,48%</t>
-  </si>
-  <si>
-    <t>40,63%</t>
-  </si>
-  <si>
-    <t>33,18%</t>
-  </si>
-  <si>
-    <t>48,85%</t>
-  </si>
-  <si>
-    <t>28,19%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>41,4%</t>
-  </si>
-  <si>
-    <t>34,45%</t>
-  </si>
-  <si>
-    <t>24,37%</t>
-  </si>
-  <si>
-    <t>45,59%</t>
-  </si>
-  <si>
-    <t>31,23%</t>
-  </si>
-  <si>
-    <t>23,95%</t>
-  </si>
-  <si>
-    <t>39,59%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>26,2%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>26,75%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>23,57%</t>
-  </si>
-  <si>
-    <t>59,61%</t>
-  </si>
-  <si>
-    <t>45,03%</t>
-  </si>
-  <si>
-    <t>73,35%</t>
-  </si>
-  <si>
-    <t>49,97%</t>
-  </si>
-  <si>
-    <t>85,88%</t>
-  </si>
-  <si>
-    <t>66,08%</t>
-  </si>
-  <si>
-    <t>53,31%</t>
-  </si>
-  <si>
-    <t>74,07%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>20,25%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>42,91%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>27,8%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>21,7%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>35,74%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>23,2%</t>
-  </si>
-  <si>
-    <t>46,02%</t>
-  </si>
-  <si>
-    <t>31,49%</t>
-  </si>
-  <si>
-    <t>59,3%</t>
-  </si>
-  <si>
-    <t>69,86%</t>
-  </si>
-  <si>
-    <t>58,19%</t>
-  </si>
-  <si>
-    <t>79,45%</t>
-  </si>
-  <si>
-    <t>57,84%</t>
-  </si>
-  <si>
-    <t>48,3%</t>
-  </si>
-  <si>
-    <t>66,46%</t>
-  </si>
-  <si>
-    <t>15,18%</t>
-  </si>
-  <si>
-    <t>38,35%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>23,31%</t>
-  </si>
-  <si>
-    <t>19,74%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>27,51%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>22,32%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>17,7%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>30,69%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>26,76%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>24,41%</t>
-  </si>
-  <si>
-    <t>42,0%</t>
-  </si>
-  <si>
-    <t>31,79%</t>
-  </si>
-  <si>
-    <t>55,19%</t>
-  </si>
-  <si>
-    <t>70,65%</t>
-  </si>
-  <si>
-    <t>59,22%</t>
-  </si>
-  <si>
-    <t>80,77%</t>
-  </si>
-  <si>
-    <t>54,0%</t>
-  </si>
-  <si>
-    <t>45,27%</t>
-  </si>
-  <si>
-    <t>62,13%</t>
-  </si>
-  <si>
-    <t>22,08%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>33,23%</t>
-  </si>
-  <si>
-    <t>17,15%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>28,24%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>25,39%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>17,69%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>19,77%</t>
-  </si>
-  <si>
-    <t>20,32%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>30,19%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>57,34%</t>
-  </si>
-  <si>
-    <t>48,68%</t>
-  </si>
-  <si>
-    <t>65,99%</t>
-  </si>
-  <si>
-    <t>81,27%</t>
-  </si>
-  <si>
-    <t>74,47%</t>
-  </si>
-  <si>
-    <t>86,6%</t>
-  </si>
-  <si>
-    <t>68,75%</t>
-  </si>
-  <si>
-    <t>63,2%</t>
-  </si>
-  <si>
-    <t>74,14%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>25,46%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>24,48%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>35,78%</t>
-  </si>
-  <si>
-    <t>61,63%</t>
-  </si>
-  <si>
-    <t>68,67%</t>
-  </si>
-  <si>
-    <t>40,08%</t>
-  </si>
-  <si>
-    <t>27,09%</t>
-  </si>
-  <si>
-    <t>46,68%</t>
-  </si>
-  <si>
-    <t>20,88%</t>
-  </si>
-  <si>
-    <t>27,48%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>27,97%</t>
-  </si>
-  <si>
-    <t>20,94%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>25,97%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
+    <t>16,26%</t>
   </si>
   <si>
     <t>14,0%</t>
   </si>
   <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
   </si>
   <si>
     <t>34,47%</t>
   </si>
   <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>64,67%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>50,14%</t>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>64,09%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>48,92%</t>
   </si>
   <si>
     <t>39,84%</t>
   </si>
   <si>
-    <t>33,25%</t>
-  </si>
-  <si>
-    <t>44,04%</t>
+    <t>32,48%</t>
+  </si>
+  <si>
+    <t>44,23%</t>
   </si>
   <si>
     <t>70,73%</t>
   </si>
   <si>
-    <t>66,68%</t>
-  </si>
-  <si>
-    <t>74,17%</t>
+    <t>66,64%</t>
+  </si>
+  <si>
+    <t>74,01%</t>
   </si>
   <si>
     <t>53,04%</t>
   </si>
   <si>
-    <t>47,18%</t>
-  </si>
-  <si>
-    <t>56,09%</t>
-  </si>
-  <si>
-    <t>26,04%</t>
+    <t>47,96%</t>
+  </si>
+  <si>
+    <t>56,15%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>26,34%</t>
   </si>
   <si>
     <t>17,3%</t>
   </si>
   <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>21,64%</t>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>21,84%</t>
   </si>
   <si>
     <t>20,42%</t>
   </si>
   <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>22,8%</t>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>22,69%</t>
   </si>
   <si>
     <t>14,68%</t>
   </si>
   <si>
-    <t>11,69%</t>
+    <t>17,44%</t>
   </si>
   <si>
     <t>5,31%</t>
   </si>
   <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
+    <t>7,12%</t>
   </si>
   <si>
     <t>10,68%</t>
   </si>
   <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>22,73%</t>
-  </si>
-  <si>
-    <t>35,18%</t>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>37,83%</t>
   </si>
   <si>
     <t>6,66%</t>
@@ -2665,13 +2647,10 @@
     <t>5,04%</t>
   </si>
   <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>25,29%</t>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>24,36%</t>
   </si>
 </sst>
 </file>
@@ -3083,7 +3062,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C12D911-A953-4D2F-9EBB-5B3FA3B3D11F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3737DDD-EDBF-4037-BFA4-B23B5AA8AE18}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -4035,7 +4014,7 @@
         <v>107</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>108</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4050,10 +4029,10 @@
         <v>47022</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>35</v>
       </c>
       <c r="G21" s="7" t="s">
         <v>110</v>
@@ -4737,10 +4716,10 @@
         <v>202</v>
       </c>
       <c r="K34" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>204</v>
       </c>
       <c r="M34" s="7">
         <v>232</v>
@@ -4749,13 +4728,13 @@
         <v>251667</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="P34" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="P34" s="7" t="s">
+      <c r="Q34" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4770,13 +4749,13 @@
         <v>59651</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="F35" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="F35" s="7" t="s">
+      <c r="G35" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>210</v>
       </c>
       <c r="H35" s="7">
         <v>25</v>
@@ -4785,13 +4764,13 @@
         <v>27155</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="L35" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>213</v>
       </c>
       <c r="M35" s="7">
         <v>84</v>
@@ -4803,10 +4782,10 @@
         <v>34</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -4821,13 +4800,13 @@
         <v>47995</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>218</v>
+        <v>183</v>
       </c>
       <c r="H36" s="7">
         <v>15</v>
@@ -4836,13 +4815,13 @@
         <v>16130</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="M36" s="7">
         <v>60</v>
@@ -4851,13 +4830,13 @@
         <v>64125</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4872,13 +4851,13 @@
         <v>44037</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>227</v>
+        <v>175</v>
       </c>
       <c r="H37" s="7">
         <v>5</v>
@@ -4887,13 +4866,13 @@
         <v>5181</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="M37" s="7">
         <v>47</v>
@@ -4902,13 +4881,13 @@
         <v>49218</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4964,7 +4943,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>10</v>
@@ -4976,13 +4955,13 @@
         <v>175599</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="H39" s="7">
         <v>172</v>
@@ -4991,13 +4970,13 @@
         <v>189782</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="M39" s="7">
         <v>335</v>
@@ -5006,13 +4985,13 @@
         <v>365380</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -5027,13 +5006,13 @@
         <v>69807</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="H40" s="7">
         <v>34</v>
@@ -5042,13 +5021,13 @@
         <v>37386</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="M40" s="7">
         <v>99</v>
@@ -5057,13 +5036,13 @@
         <v>107192</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -5078,13 +5057,13 @@
         <v>72542</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="H41" s="7">
         <v>15</v>
@@ -5093,13 +5072,13 @@
         <v>16215</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="M41" s="7">
         <v>85</v>
@@ -5108,13 +5087,13 @@
         <v>88757</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -5129,13 +5108,13 @@
         <v>41882</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="H42" s="7">
         <v>14</v>
@@ -5144,13 +5123,13 @@
         <v>16192</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>266</v>
+        <v>253</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="M42" s="7">
         <v>52</v>
@@ -5159,13 +5138,13 @@
         <v>58075</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -5233,13 +5212,13 @@
         <v>578236</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="H44" s="7">
         <v>639</v>
@@ -5248,13 +5227,13 @@
         <v>690546</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="M44" s="7">
         <v>1180</v>
@@ -5263,13 +5242,13 @@
         <v>1268782</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -5284,13 +5263,13 @@
         <v>298429</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="H45" s="7">
         <v>141</v>
@@ -5299,13 +5278,13 @@
         <v>151411</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>284</v>
+        <v>215</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="M45" s="7">
         <v>425</v>
@@ -5314,13 +5293,13 @@
         <v>449840</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -5335,13 +5314,13 @@
         <v>260847</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="H46" s="7">
         <v>46</v>
@@ -5350,13 +5329,13 @@
         <v>50704</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="M46" s="7">
         <v>294</v>
@@ -5365,13 +5344,13 @@
         <v>311551</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>226</v>
+        <v>258</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -5386,13 +5365,13 @@
         <v>274563</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>68</v>
+        <v>291</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="H47" s="7">
         <v>48</v>
@@ -5401,13 +5380,13 @@
         <v>53829</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="M47" s="7">
         <v>303</v>
@@ -5416,13 +5395,13 @@
         <v>328392</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -5478,7 +5457,7 @@
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
     </row>
   </sheetData>
@@ -5502,7 +5481,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7267EE36-F112-4602-AF5F-4DDBE28FFF67}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FB5D07F-3789-48E6-BAD1-5B2903B7AABD}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5519,7 +5498,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5626,13 +5605,13 @@
         <v>41910</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="H4" s="7">
         <v>74</v>
@@ -5641,13 +5620,13 @@
         <v>76374</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>312</v>
+        <v>59</v>
       </c>
       <c r="M4" s="7">
         <v>113</v>
@@ -5656,13 +5635,13 @@
         <v>118284</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5677,13 +5656,13 @@
         <v>43094</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="H5" s="7">
         <v>13</v>
@@ -5692,13 +5671,13 @@
         <v>14149</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="M5" s="7">
         <v>51</v>
@@ -5707,13 +5686,13 @@
         <v>57243</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5728,13 +5707,13 @@
         <v>23151</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="H6" s="7">
         <v>4</v>
@@ -5743,13 +5722,13 @@
         <v>3871</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="M6" s="7">
         <v>22</v>
@@ -5758,13 +5737,13 @@
         <v>27022</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5779,13 +5758,13 @@
         <v>27082</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="H7" s="7">
         <v>7</v>
@@ -5794,13 +5773,13 @@
         <v>6580</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="M7" s="7">
         <v>31</v>
@@ -5809,13 +5788,13 @@
         <v>33662</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5886,10 +5865,10 @@
         <v>127</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="H9" s="7">
         <v>71</v>
@@ -5898,13 +5877,13 @@
         <v>73103</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="M9" s="7">
         <v>125</v>
@@ -5913,13 +5892,13 @@
         <v>130569</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5934,13 +5913,13 @@
         <v>37963</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>353</v>
+        <v>119</v>
       </c>
       <c r="H10" s="7">
         <v>18</v>
@@ -5949,13 +5928,13 @@
         <v>19043</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="M10" s="7">
         <v>54</v>
@@ -5964,13 +5943,13 @@
         <v>57006</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5988,10 +5967,10 @@
         <v>186</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="H11" s="7">
         <v>5</v>
@@ -6000,13 +5979,13 @@
         <v>5050</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="M11" s="7">
         <v>24</v>
@@ -6015,13 +5994,13 @@
         <v>26262</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>367</v>
+        <v>109</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6036,13 +6015,13 @@
         <v>53656</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="H12" s="7">
         <v>15</v>
@@ -6051,13 +6030,13 @@
         <v>16484</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="M12" s="7">
         <v>63</v>
@@ -6066,13 +6045,13 @@
         <v>70140</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6140,13 +6119,13 @@
         <v>49521</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="H14" s="7">
         <v>58</v>
@@ -6155,13 +6134,13 @@
         <v>57149</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="M14" s="7">
         <v>110</v>
@@ -6170,13 +6149,13 @@
         <v>106669</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6191,13 +6170,13 @@
         <v>29126</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="H15" s="7">
         <v>16</v>
@@ -6206,13 +6185,13 @@
         <v>15277</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="K15" s="7" t="s">
         <v>66</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="M15" s="7">
         <v>46</v>
@@ -6221,13 +6200,13 @@
         <v>44403</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -6242,13 +6221,13 @@
         <v>25430</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="H16" s="7">
         <v>4</v>
@@ -6257,13 +6236,13 @@
         <v>4372</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="M16" s="7">
         <v>31</v>
@@ -6272,13 +6251,13 @@
         <v>29802</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6293,10 +6272,10 @@
         <v>19795</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>403</v>
+        <v>244</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>72</v>
@@ -6308,13 +6287,13 @@
         <v>6539</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="M17" s="7">
         <v>28</v>
@@ -6323,13 +6302,13 @@
         <v>26334</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>42</v>
+        <v>400</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6397,13 +6376,13 @@
         <v>36422</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="H19" s="7">
         <v>59</v>
@@ -6412,13 +6391,13 @@
         <v>61476</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>413</v>
+        <v>58</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="M19" s="7">
         <v>93</v>
@@ -6427,13 +6406,13 @@
         <v>97898</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6448,13 +6427,13 @@
         <v>22656</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>419</v>
+        <v>35</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="H20" s="7">
         <v>13</v>
@@ -6463,13 +6442,13 @@
         <v>12582</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>422</v>
+        <v>150</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>423</v>
+        <v>412</v>
       </c>
       <c r="M20" s="7">
         <v>35</v>
@@ -6478,13 +6457,13 @@
         <v>35238</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>425</v>
+        <v>414</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>426</v>
+        <v>415</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6499,13 +6478,13 @@
         <v>20938</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>427</v>
+        <v>416</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>428</v>
+        <v>417</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>429</v>
+        <v>418</v>
       </c>
       <c r="H21" s="7">
         <v>3</v>
@@ -6514,13 +6493,13 @@
         <v>3329</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>430</v>
+        <v>419</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>176</v>
+        <v>421</v>
       </c>
       <c r="M21" s="7">
         <v>22</v>
@@ -6529,13 +6508,13 @@
         <v>24266</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6550,13 +6529,13 @@
         <v>31127</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="H22" s="7">
         <v>4</v>
@@ -6565,13 +6544,13 @@
         <v>4472</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="M22" s="7">
         <v>32</v>
@@ -6580,13 +6559,13 @@
         <v>35599</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6654,13 +6633,13 @@
         <v>20962</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
       <c r="H24" s="7">
         <v>38</v>
@@ -6669,13 +6648,13 @@
         <v>35554</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>278</v>
+        <v>436</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="M24" s="7">
         <v>60</v>
@@ -6684,13 +6663,13 @@
         <v>56516</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6705,13 +6684,13 @@
         <v>18191</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="H25" s="7">
         <v>9</v>
@@ -6720,13 +6699,13 @@
         <v>8374</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="M25" s="7">
         <v>25</v>
@@ -6735,13 +6714,13 @@
         <v>26565</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>419</v>
+        <v>35</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6756,13 +6735,13 @@
         <v>17389</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>459</v>
+        <v>450</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
       <c r="H26" s="7">
         <v>4</v>
@@ -6771,13 +6750,13 @@
         <v>3603</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>86</v>
+        <v>454</v>
       </c>
       <c r="M26" s="7">
         <v>21</v>
@@ -6786,13 +6765,13 @@
         <v>20993</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6807,13 +6786,13 @@
         <v>23431</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="H27" s="7">
         <v>8</v>
@@ -6822,13 +6801,13 @@
         <v>7886</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="M27" s="7">
         <v>31</v>
@@ -6837,13 +6816,13 @@
         <v>31318</v>
       </c>
       <c r="O27" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="Q27" s="7" t="s">
         <v>465</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>472</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>473</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -6911,13 +6890,13 @@
         <v>34989</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="H29" s="7">
         <v>69</v>
@@ -6926,13 +6905,13 @@
         <v>67432</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="M29" s="7">
         <v>103</v>
@@ -6941,13 +6920,13 @@
         <v>102422</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6962,13 +6941,13 @@
         <v>18092</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="H30" s="7">
         <v>5</v>
@@ -6977,13 +6956,13 @@
         <v>4843</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="M30" s="7">
         <v>22</v>
@@ -6992,13 +6971,13 @@
         <v>22935</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7013,13 +6992,13 @@
         <v>20140</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="H31" s="7">
         <v>1</v>
@@ -7028,13 +7007,13 @@
         <v>1530</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="K31" s="7" t="s">
         <v>149</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="M31" s="7">
         <v>20</v>
@@ -7043,13 +7022,13 @@
         <v>21671</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>497</v>
+        <v>256</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>498</v>
+        <v>489</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>287</v>
+        <v>490</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -7064,13 +7043,13 @@
         <v>34281</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>499</v>
+        <v>242</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>500</v>
+        <v>491</v>
       </c>
       <c r="H32" s="7">
         <v>2</v>
@@ -7079,13 +7058,13 @@
         <v>1763</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>149</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>501</v>
+        <v>492</v>
       </c>
       <c r="M32" s="7">
         <v>35</v>
@@ -7094,13 +7073,13 @@
         <v>36044</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>249</v>
+        <v>493</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7168,13 +7147,13 @@
         <v>135989</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="H34" s="7">
         <v>160</v>
@@ -7183,13 +7162,13 @@
         <v>166538</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="M34" s="7">
         <v>279</v>
@@ -7198,13 +7177,13 @@
         <v>302527</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>206</v>
+        <v>504</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -7219,13 +7198,13 @@
         <v>127288</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="H35" s="7">
         <v>79</v>
@@ -7234,13 +7213,13 @@
         <v>84137</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="M35" s="7">
         <v>189</v>
@@ -7249,13 +7228,13 @@
         <v>211425</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>520</v>
+        <v>45</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -7270,13 +7249,13 @@
         <v>48842</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>459</v>
+        <v>450</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="H36" s="7">
         <v>27</v>
@@ -7285,13 +7264,13 @@
         <v>26487</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="M36" s="7">
         <v>68</v>
@@ -7300,13 +7279,13 @@
         <v>75329</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>251</v>
+        <v>519</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -7321,13 +7300,13 @@
         <v>45583</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="H37" s="7">
         <v>7</v>
@@ -7336,13 +7315,13 @@
         <v>6822</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>76</v>
+        <v>523</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="M37" s="7">
         <v>48</v>
@@ -7351,13 +7330,13 @@
         <v>52406</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -7413,7 +7392,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>10</v>
@@ -7425,13 +7404,13 @@
         <v>168250</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="H39" s="7">
         <v>175</v>
@@ -7440,13 +7419,13 @@
         <v>182542</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="M39" s="7">
         <v>335</v>
@@ -7455,13 +7434,13 @@
         <v>350793</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -7476,13 +7455,13 @@
         <v>65633</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>545</v>
+        <v>185</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="H40" s="7">
         <v>32</v>
@@ -7491,13 +7470,13 @@
         <v>33476</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>547</v>
+        <v>540</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>548</v>
+        <v>541</v>
       </c>
       <c r="M40" s="7">
         <v>95</v>
@@ -7506,13 +7485,13 @@
         <v>99109</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -7527,13 +7506,13 @@
         <v>50870</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>552</v>
+        <v>299</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="H41" s="7">
         <v>16</v>
@@ -7542,13 +7521,13 @@
         <v>15959</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>403</v>
+        <v>244</v>
       </c>
       <c r="M41" s="7">
         <v>66</v>
@@ -7557,13 +7536,13 @@
         <v>66829</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>557</v>
+        <v>549</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>558</v>
+        <v>550</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>559</v>
+        <v>551</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -7578,13 +7557,13 @@
         <v>41365</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>560</v>
+        <v>552</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>558</v>
+        <v>550</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="H42" s="7">
         <v>8</v>
@@ -7593,13 +7572,13 @@
         <v>8494</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>561</v>
+        <v>553</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>562</v>
+        <v>554</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>563</v>
+        <v>555</v>
       </c>
       <c r="M42" s="7">
         <v>48</v>
@@ -7608,13 +7587,13 @@
         <v>49859</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>564</v>
+        <v>556</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>566</v>
+        <v>558</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -7682,13 +7661,13 @@
         <v>545508</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>567</v>
+        <v>559</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>568</v>
+        <v>560</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>569</v>
+        <v>561</v>
       </c>
       <c r="H44" s="7">
         <v>704</v>
@@ -7697,13 +7676,13 @@
         <v>720170</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="M44" s="7">
         <v>1218</v>
@@ -7712,13 +7691,13 @@
         <v>1265678</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>573</v>
+        <v>565</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -7733,13 +7712,13 @@
         <v>362042</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>577</v>
+        <v>569</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>578</v>
+        <v>570</v>
       </c>
       <c r="H45" s="7">
         <v>185</v>
@@ -7748,13 +7727,13 @@
         <v>191882</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>579</v>
+        <v>571</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>581</v>
+        <v>573</v>
       </c>
       <c r="M45" s="7">
         <v>517</v>
@@ -7763,13 +7742,13 @@
         <v>553924</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>584</v>
+        <v>576</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -7784,13 +7763,13 @@
         <v>227972</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>586</v>
+        <v>578</v>
       </c>
       <c r="H46" s="7">
         <v>64</v>
@@ -7799,13 +7778,13 @@
         <v>64201</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>587</v>
+        <v>579</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>589</v>
+        <v>581</v>
       </c>
       <c r="M46" s="7">
         <v>274</v>
@@ -7814,13 +7793,13 @@
         <v>292173</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>590</v>
+        <v>582</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>591</v>
+        <v>583</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>592</v>
+        <v>584</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -7835,13 +7814,13 @@
         <v>276320</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>593</v>
+        <v>257</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>594</v>
+        <v>585</v>
       </c>
       <c r="H47" s="7">
         <v>58</v>
@@ -7850,13 +7829,13 @@
         <v>59041</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>595</v>
+        <v>586</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>596</v>
+        <v>587</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>597</v>
+        <v>588</v>
       </c>
       <c r="M47" s="7">
         <v>316</v>
@@ -7865,13 +7844,13 @@
         <v>335362</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>598</v>
+        <v>589</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>79</v>
+        <v>590</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>599</v>
+        <v>591</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -7927,7 +7906,7 @@
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
     </row>
   </sheetData>
@@ -7951,7 +7930,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC7960D1-8B75-4B13-B519-C88749165EE7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81514EF7-9B6F-4A09-B071-537FA6F531BA}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7968,7 +7947,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>600</v>
+        <v>592</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -8075,13 +8054,13 @@
         <v>34840</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>601</v>
+        <v>593</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>602</v>
+        <v>154</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>603</v>
+        <v>594</v>
       </c>
       <c r="H4" s="7">
         <v>97</v>
@@ -8090,13 +8069,13 @@
         <v>52917</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>604</v>
+        <v>595</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>605</v>
+        <v>596</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>606</v>
+        <v>597</v>
       </c>
       <c r="M4" s="7">
         <v>135</v>
@@ -8105,13 +8084,13 @@
         <v>87757</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>607</v>
+        <v>598</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>608</v>
+        <v>599</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>609</v>
+        <v>600</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -8126,13 +8105,13 @@
         <v>32603</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>610</v>
+        <v>601</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>611</v>
+        <v>602</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>612</v>
+        <v>603</v>
       </c>
       <c r="H5" s="7">
         <v>23</v>
@@ -8141,13 +8120,13 @@
         <v>10259</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>613</v>
+        <v>604</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>614</v>
+        <v>605</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>577</v>
+        <v>606</v>
       </c>
       <c r="M5" s="7">
         <v>66</v>
@@ -8156,13 +8135,13 @@
         <v>42863</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>615</v>
+        <v>607</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>616</v>
+        <v>608</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -8177,13 +8156,13 @@
         <v>13000</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>618</v>
+        <v>610</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>619</v>
+        <v>611</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>546</v>
+        <v>612</v>
       </c>
       <c r="H6" s="7">
         <v>3</v>
@@ -8192,13 +8171,13 @@
         <v>1503</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>620</v>
+        <v>613</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>621</v>
+        <v>614</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>622</v>
+        <v>555</v>
       </c>
       <c r="M6" s="7">
         <v>20</v>
@@ -8207,13 +8186,13 @@
         <v>14503</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>623</v>
+        <v>615</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>624</v>
+        <v>616</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>625</v>
+        <v>617</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -8228,13 +8207,13 @@
         <v>5810</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>627</v>
+        <v>619</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>628</v>
+        <v>620</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -8246,10 +8225,10 @@
         <v>149</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>629</v>
+        <v>621</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>630</v>
+        <v>622</v>
       </c>
       <c r="M7" s="7">
         <v>4</v>
@@ -8258,13 +8237,13 @@
         <v>5810</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>631</v>
+        <v>623</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>632</v>
+        <v>624</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>260</v>
+        <v>625</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -8332,13 +8311,13 @@
         <v>35877</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>633</v>
+        <v>626</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>634</v>
+        <v>627</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>635</v>
+        <v>628</v>
       </c>
       <c r="H9" s="7">
         <v>74</v>
@@ -8347,13 +8326,13 @@
         <v>60937</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>636</v>
+        <v>629</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>637</v>
+        <v>630</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>638</v>
+        <v>631</v>
       </c>
       <c r="M9" s="7">
         <v>102</v>
@@ -8362,13 +8341,13 @@
         <v>96813</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>639</v>
+        <v>632</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>640</v>
+        <v>633</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>641</v>
+        <v>634</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -8383,13 +8362,13 @@
         <v>37650</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>642</v>
+        <v>635</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>33</v>
+        <v>636</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
       <c r="H10" s="7">
         <v>17</v>
@@ -8398,13 +8377,13 @@
         <v>12590</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>644</v>
+        <v>638</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>646</v>
+        <v>640</v>
       </c>
       <c r="M10" s="7">
         <v>47</v>
@@ -8413,13 +8392,13 @@
         <v>50240</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -8434,13 +8413,13 @@
         <v>28995</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="H11" s="7">
         <v>4</v>
@@ -8449,13 +8428,13 @@
         <v>2425</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>653</v>
+        <v>647</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>654</v>
+        <v>624</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>655</v>
+        <v>648</v>
       </c>
       <c r="M11" s="7">
         <v>23</v>
@@ -8464,13 +8443,13 @@
         <v>31420</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>264</v>
+        <v>649</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -8485,13 +8464,13 @@
         <v>17554</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>659</v>
+        <v>653</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>660</v>
+        <v>654</v>
       </c>
       <c r="H12" s="7">
         <v>10</v>
@@ -8500,13 +8479,13 @@
         <v>7461</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>41</v>
+        <v>655</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="M12" s="7">
         <v>23</v>
@@ -8515,13 +8494,13 @@
         <v>25015</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -8589,13 +8568,13 @@
         <v>20475</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>434</v>
+        <v>280</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="H14" s="7">
         <v>46</v>
@@ -8604,13 +8583,13 @@
         <v>34838</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="M14" s="7">
         <v>66</v>
@@ -8619,13 +8598,13 @@
         <v>55313</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -8640,13 +8619,13 @@
         <v>19761</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="H15" s="7">
         <v>28</v>
@@ -8655,13 +8634,13 @@
         <v>22753</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="M15" s="7">
         <v>47</v>
@@ -8670,13 +8649,13 @@
         <v>42515</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -8691,13 +8670,13 @@
         <v>11118</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>613</v>
+        <v>604</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>684</v>
+        <v>446</v>
       </c>
       <c r="H16" s="7">
         <v>8</v>
@@ -8706,13 +8685,13 @@
         <v>5320</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>685</v>
+        <v>679</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>686</v>
+        <v>680</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>687</v>
+        <v>681</v>
       </c>
       <c r="M16" s="7">
         <v>20</v>
@@ -8721,13 +8700,13 @@
         <v>16438</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>688</v>
+        <v>682</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -8742,13 +8721,13 @@
         <v>18754</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>691</v>
+        <v>685</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>692</v>
+        <v>686</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>444</v>
+        <v>687</v>
       </c>
       <c r="H17" s="7">
         <v>5</v>
@@ -8757,13 +8736,13 @@
         <v>3128</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>693</v>
+        <v>688</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>694</v>
+        <v>356</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
       <c r="M17" s="7">
         <v>24</v>
@@ -8772,13 +8751,13 @@
         <v>21881</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>696</v>
+        <v>690</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>697</v>
+        <v>691</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -8846,13 +8825,13 @@
         <v>62356</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>699</v>
+        <v>693</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>701</v>
+        <v>695</v>
       </c>
       <c r="H19" s="7">
         <v>82</v>
@@ -8861,13 +8840,13 @@
         <v>68239</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
       <c r="M19" s="7">
         <v>129</v>
@@ -8876,13 +8855,13 @@
         <v>130595</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -8897,13 +8876,13 @@
         <v>9574</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>150</v>
+        <v>702</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="H20" s="7">
         <v>6</v>
@@ -8912,13 +8891,13 @@
         <v>14897</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>214</v>
+        <v>705</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="M20" s="7">
         <v>12</v>
@@ -8927,13 +8906,13 @@
         <v>24471</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8948,13 +8927,13 @@
         <v>9977</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="H21" s="7">
         <v>3</v>
@@ -8963,13 +8942,13 @@
         <v>2281</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>622</v>
+        <v>716</v>
       </c>
       <c r="M21" s="7">
         <v>10</v>
@@ -8978,13 +8957,13 @@
         <v>12258</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>587</v>
+        <v>579</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>76</v>
+        <v>717</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -8999,13 +8978,13 @@
         <v>22700</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>718</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>719</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>720</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>721</v>
       </c>
       <c r="H22" s="7">
         <v>10</v>
@@ -9014,13 +8993,13 @@
         <v>7613</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>722</v>
+        <v>648</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="M22" s="7">
         <v>27</v>
@@ -9029,13 +9008,13 @@
         <v>30313</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -9103,13 +9082,13 @@
         <v>20596</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="H24" s="7">
         <v>61</v>
@@ -9118,13 +9097,13 @@
         <v>30729</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="M24" s="7">
         <v>86</v>
@@ -9133,13 +9112,13 @@
         <v>51325</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -9154,13 +9133,13 @@
         <v>11549</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>737</v>
+        <v>384</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="H25" s="7">
         <v>12</v>
@@ -9169,13 +9148,13 @@
         <v>5964</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>190</v>
+        <v>735</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="M25" s="7">
         <v>28</v>
@@ -9184,13 +9163,13 @@
         <v>17512</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -9205,13 +9184,13 @@
         <v>4685</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>695</v>
+        <v>741</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>744</v>
+        <v>553</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
@@ -9220,13 +9199,13 @@
         <v>780</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>746</v>
+        <v>193</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>149</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="M26" s="7">
         <v>6</v>
@@ -9235,13 +9214,13 @@
         <v>5464</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -9256,13 +9235,13 @@
         <v>7922</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>752</v>
+        <v>357</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="H27" s="7">
         <v>10</v>
@@ -9271,13 +9250,13 @@
         <v>6511</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>754</v>
+        <v>617</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>755</v>
+        <v>749</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>756</v>
+        <v>750</v>
       </c>
       <c r="M27" s="7">
         <v>21</v>
@@ -9286,13 +9265,13 @@
         <v>14433</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>757</v>
+        <v>751</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>758</v>
+        <v>752</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -9360,13 +9339,13 @@
         <v>30079</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>760</v>
+        <v>754</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>761</v>
+        <v>755</v>
       </c>
       <c r="H29" s="7">
         <v>47</v>
@@ -9375,13 +9354,13 @@
         <v>36477</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>763</v>
+        <v>757</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>764</v>
+        <v>758</v>
       </c>
       <c r="M29" s="7">
         <v>79</v>
@@ -9390,13 +9369,13 @@
         <v>66556</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>765</v>
+        <v>759</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>766</v>
+        <v>760</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>767</v>
+        <v>761</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -9411,13 +9390,13 @@
         <v>15814</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>768</v>
+        <v>762</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>769</v>
+        <v>763</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>770</v>
+        <v>764</v>
       </c>
       <c r="H30" s="7">
         <v>14</v>
@@ -9426,13 +9405,13 @@
         <v>8857</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>771</v>
+        <v>765</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>364</v>
+        <v>766</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>429</v>
+        <v>767</v>
       </c>
       <c r="M30" s="7">
         <v>30</v>
@@ -9441,13 +9420,13 @@
         <v>24671</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>773</v>
+        <v>107</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>774</v>
+        <v>769</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -9462,13 +9441,13 @@
         <v>11171</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>552</v>
+        <v>299</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>775</v>
+        <v>770</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>776</v>
+        <v>771</v>
       </c>
       <c r="H31" s="7">
         <v>6</v>
@@ -9477,13 +9456,13 @@
         <v>4754</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>777</v>
+        <v>772</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>405</v>
+        <v>773</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>778</v>
+        <v>279</v>
       </c>
       <c r="M31" s="7">
         <v>19</v>
@@ -9492,13 +9471,13 @@
         <v>15925</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>779</v>
+        <v>774</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>655</v>
+        <v>679</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -9513,13 +9492,13 @@
         <v>14553</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>783</v>
+        <v>778</v>
       </c>
       <c r="H32" s="7">
         <v>2</v>
@@ -9528,13 +9507,13 @@
         <v>1542</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>784</v>
+        <v>779</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>149</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>785</v>
+        <v>780</v>
       </c>
       <c r="M32" s="7">
         <v>21</v>
@@ -9543,13 +9522,13 @@
         <v>16094</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>786</v>
+        <v>781</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>787</v>
+        <v>782</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>788</v>
+        <v>783</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -9617,13 +9596,13 @@
         <v>92780</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>789</v>
+        <v>784</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>790</v>
+        <v>785</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="H34" s="7">
         <v>163</v>
@@ -9632,13 +9611,13 @@
         <v>119896</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>792</v>
+        <v>787</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>793</v>
+        <v>788</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>794</v>
+        <v>789</v>
       </c>
       <c r="M34" s="7">
         <v>249</v>
@@ -9647,13 +9626,13 @@
         <v>212676</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>797</v>
+        <v>792</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -9668,13 +9647,13 @@
         <v>28578</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>798</v>
+        <v>118</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>799</v>
+        <v>793</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>800</v>
+        <v>794</v>
       </c>
       <c r="H35" s="7">
         <v>19</v>
@@ -9683,13 +9662,13 @@
         <v>13753</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>801</v>
+        <v>795</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>802</v>
+        <v>796</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>803</v>
+        <v>797</v>
       </c>
       <c r="M35" s="7">
         <v>43</v>
@@ -9698,13 +9677,13 @@
         <v>42331</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>804</v>
+        <v>218</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>805</v>
+        <v>513</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>806</v>
+        <v>100</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -9719,13 +9698,13 @@
         <v>12672</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>807</v>
+        <v>798</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>808</v>
+        <v>680</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>742</v>
+        <v>35</v>
       </c>
       <c r="H36" s="7">
         <v>9</v>
@@ -9734,13 +9713,13 @@
         <v>5242</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>715</v>
+        <v>799</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>809</v>
+        <v>800</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>810</v>
+        <v>801</v>
       </c>
       <c r="M36" s="7">
         <v>21</v>
@@ -9749,13 +9728,13 @@
         <v>17914</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>146</v>
+        <v>616</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>811</v>
+        <v>553</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>523</v>
+        <v>802</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -9770,13 +9749,13 @@
         <v>27772</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>812</v>
+        <v>803</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>813</v>
+        <v>804</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>814</v>
+        <v>805</v>
       </c>
       <c r="H37" s="7">
         <v>13</v>
@@ -9785,28 +9764,28 @@
         <v>8632</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>815</v>
+        <v>806</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>816</v>
+        <v>807</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>817</v>
+        <v>808</v>
       </c>
       <c r="M37" s="7">
         <v>42</v>
       </c>
       <c r="N37" s="7">
-        <v>36404</v>
+        <v>36405</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>818</v>
+        <v>809</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>819</v>
+        <v>526</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>529</v>
+        <v>810</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -9848,7 +9827,7 @@
         <v>355</v>
       </c>
       <c r="N38" s="7">
-        <v>309325</v>
+        <v>309326</v>
       </c>
       <c r="O38" s="7" t="s">
         <v>52</v>
@@ -9862,7 +9841,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>10</v>
@@ -9874,13 +9853,13 @@
         <v>83637</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>30</v>
+        <v>811</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>158</v>
+        <v>812</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>820</v>
+        <v>813</v>
       </c>
       <c r="H39" s="7">
         <v>118</v>
@@ -9889,13 +9868,13 @@
         <v>100431</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>821</v>
+        <v>814</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>575</v>
+        <v>815</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>822</v>
+        <v>816</v>
       </c>
       <c r="M39" s="7">
         <v>189</v>
@@ -9904,13 +9883,13 @@
         <v>184067</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>823</v>
+        <v>817</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>824</v>
+        <v>818</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>825</v>
+        <v>819</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -9925,13 +9904,13 @@
         <v>61860</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>826</v>
+        <v>820</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>104</v>
+        <v>66</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>827</v>
+        <v>821</v>
       </c>
       <c r="H40" s="7">
         <v>40</v>
@@ -9940,13 +9919,13 @@
         <v>34301</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>828</v>
+        <v>822</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>829</v>
+        <v>823</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>830</v>
+        <v>824</v>
       </c>
       <c r="M40" s="7">
         <v>91</v>
@@ -9955,13 +9934,13 @@
         <v>96160</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>831</v>
+        <v>825</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>832</v>
+        <v>826</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>833</v>
+        <v>827</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -9976,13 +9955,13 @@
         <v>48677</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>834</v>
+        <v>828</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>835</v>
+        <v>636</v>
       </c>
       <c r="H41" s="7">
         <v>16</v>
@@ -9991,13 +9970,13 @@
         <v>15605</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>836</v>
+        <v>829</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>837</v>
+        <v>830</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>838</v>
+        <v>831</v>
       </c>
       <c r="M41" s="7">
         <v>55</v>
@@ -10006,13 +9985,13 @@
         <v>64282</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>839</v>
+        <v>832</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>840</v>
+        <v>833</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>841</v>
+        <v>834</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -10027,13 +10006,13 @@
         <v>102152</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>842</v>
+        <v>835</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>843</v>
+        <v>836</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>844</v>
+        <v>837</v>
       </c>
       <c r="H42" s="7">
         <v>14</v>
@@ -10042,13 +10021,13 @@
         <v>12629</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>589</v>
+        <v>581</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>845</v>
+        <v>838</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="M42" s="7">
         <v>59</v>
@@ -10057,13 +10036,13 @@
         <v>114780</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>247</v>
+        <v>840</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>847</v>
+        <v>841</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -10131,13 +10110,13 @@
         <v>380639</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>848</v>
+        <v>842</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>849</v>
+        <v>843</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>850</v>
+        <v>844</v>
       </c>
       <c r="H44" s="7">
         <v>688</v>
@@ -10146,13 +10125,13 @@
         <v>504463</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>851</v>
+        <v>845</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="M44" s="7">
         <v>1035</v>
@@ -10161,13 +10140,13 @@
         <v>885102</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>855</v>
+        <v>849</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>856</v>
+        <v>850</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -10182,13 +10161,13 @@
         <v>217389</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>586</v>
+        <v>851</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>857</v>
+        <v>852</v>
       </c>
       <c r="H45" s="7">
         <v>159</v>
@@ -10197,13 +10176,13 @@
         <v>123373</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>858</v>
+        <v>853</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>859</v>
+        <v>854</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>860</v>
+        <v>855</v>
       </c>
       <c r="M45" s="7">
         <v>364</v>
@@ -10212,13 +10191,13 @@
         <v>340763</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>861</v>
+        <v>856</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>862</v>
+        <v>857</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>863</v>
+        <v>858</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -10233,13 +10212,13 @@
         <v>140295</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>864</v>
+        <v>859</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>865</v>
+        <v>804</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>42</v>
+        <v>860</v>
       </c>
       <c r="H46" s="7">
         <v>50</v>
@@ -10248,13 +10227,13 @@
         <v>37910</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>866</v>
+        <v>861</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>867</v>
+        <v>322</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>868</v>
+        <v>862</v>
       </c>
       <c r="M46" s="7">
         <v>174</v>
@@ -10263,13 +10242,13 @@
         <v>178204</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>869</v>
+        <v>863</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>752</v>
+        <v>864</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>870</v>
+        <v>708</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -10284,13 +10263,13 @@
         <v>217216</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>871</v>
+        <v>651</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>250</v>
+        <v>865</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>872</v>
+        <v>866</v>
       </c>
       <c r="H47" s="7">
         <v>64</v>
@@ -10299,13 +10278,13 @@
         <v>47515</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>873</v>
+        <v>867</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>874</v>
+        <v>868</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>875</v>
+        <v>216</v>
       </c>
       <c r="M47" s="7">
         <v>221</v>
@@ -10314,13 +10293,13 @@
         <v>264731</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>613</v>
+        <v>604</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>876</v>
+        <v>869</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>877</v>
+        <v>870</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -10376,7 +10355,7 @@
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6607-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P6607-Provincia-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{185D0EA5-4894-41BF-9CE9-771E27E69AEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F5D7F2FD-E295-47DC-A041-2491310FBF56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{DC4844D1-8A74-4854-8578-28CB18EA724F}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{BC3EA04F-C69E-4C13-BF13-ED1216B05D09}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -91,2473 +91,2473 @@
     <t>34,02%</t>
   </si>
   <si>
-    <t>27,11%</t>
-  </si>
-  <si>
-    <t>42,06%</t>
+    <t>27,14%</t>
+  </si>
+  <si>
+    <t>42,3%</t>
   </si>
   <si>
     <t>67,65%</t>
   </si>
   <si>
+    <t>59,0%</t>
+  </si>
+  <si>
+    <t>76,3%</t>
+  </si>
+  <si>
+    <t>48,01%</t>
+  </si>
+  <si>
+    <t>41,77%</t>
+  </si>
+  <si>
+    <t>54,2%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>22,97%</t>
+  </si>
+  <si>
+    <t>19,27%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>26,62%</t>
+  </si>
+  <si>
+    <t>17,67%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>22,91%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>26,23%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>30,23%</t>
+  </si>
+  <si>
+    <t>23,8%</t>
+  </si>
+  <si>
+    <t>37,96%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>21,45%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>26,72%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>30,82%</t>
+  </si>
+  <si>
+    <t>23,58%</t>
+  </si>
+  <si>
+    <t>38,91%</t>
+  </si>
+  <si>
+    <t>74,65%</t>
+  </si>
+  <si>
+    <t>63,42%</t>
+  </si>
+  <si>
+    <t>82,81%</t>
+  </si>
+  <si>
+    <t>46,89%</t>
+  </si>
+  <si>
+    <t>40,64%</t>
+  </si>
+  <si>
+    <t>53,72%</t>
+  </si>
+  <si>
+    <t>28,32%</t>
+  </si>
+  <si>
+    <t>21,54%</t>
+  </si>
+  <si>
+    <t>35,91%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>20,1%</t>
+  </si>
+  <si>
+    <t>21,89%</t>
+  </si>
+  <si>
+    <t>16,72%</t>
+  </si>
+  <si>
+    <t>27,48%</t>
+  </si>
+  <si>
+    <t>22,3%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>29,09%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>26,52%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>41,07%</t>
+  </si>
+  <si>
+    <t>34,81%</t>
+  </si>
+  <si>
+    <t>47,41%</t>
+  </si>
+  <si>
+    <t>76,49%</t>
+  </si>
+  <si>
+    <t>69,48%</t>
+  </si>
+  <si>
+    <t>82,38%</t>
+  </si>
+  <si>
+    <t>55,77%</t>
+  </si>
+  <si>
+    <t>50,95%</t>
+  </si>
+  <si>
+    <t>60,61%</t>
+  </si>
+  <si>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>23,89%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>23,09%</t>
+  </si>
+  <si>
+    <t>17,68%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>22,15%</t>
+  </si>
+  <si>
+    <t>17,57%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>22,98%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>28,09%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>33,74%</t>
+  </si>
+  <si>
+    <t>23,1%</t>
+  </si>
+  <si>
+    <t>45,49%</t>
+  </si>
+  <si>
+    <t>75,56%</t>
+  </si>
+  <si>
+    <t>61,32%</t>
+  </si>
+  <si>
+    <t>86,05%</t>
+  </si>
+  <si>
+    <t>50,75%</t>
+  </si>
+  <si>
+    <t>41,75%</t>
+  </si>
+  <si>
+    <t>59,47%</t>
+  </si>
+  <si>
+    <t>23,9%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>34,88%</t>
+  </si>
+  <si>
+    <t>19,37%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>30,29%</t>
+  </si>
+  <si>
+    <t>22,06%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>30,7%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>21,47%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>30,33%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>41,69%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>27,26%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>37,11%</t>
+  </si>
+  <si>
+    <t>27,5%</t>
+  </si>
+  <si>
+    <t>46,46%</t>
+  </si>
+  <si>
+    <t>65,83%</t>
+  </si>
+  <si>
+    <t>51,88%</t>
+  </si>
+  <si>
+    <t>78,63%</t>
+  </si>
+  <si>
+    <t>46,26%</t>
+  </si>
+  <si>
+    <t>53,73%</t>
+  </si>
+  <si>
+    <t>26,73%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>36,11%</t>
+  </si>
+  <si>
+    <t>21,53%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>35,58%</t>
+  </si>
+  <si>
+    <t>25,07%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>32,56%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>24,09%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>29,22%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>22,9%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>43,97%</t>
+  </si>
+  <si>
+    <t>38,12%</t>
+  </si>
+  <si>
+    <t>50,66%</t>
+  </si>
+  <si>
+    <t>73,24%</t>
+  </si>
+  <si>
+    <t>65,04%</t>
+  </si>
+  <si>
+    <t>79,08%</t>
+  </si>
+  <si>
+    <t>55,7%</t>
+  </si>
+  <si>
+    <t>51,01%</t>
+  </si>
+  <si>
+    <t>60,36%</t>
+  </si>
+  <si>
+    <t>22,04%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>27,43%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>21,97%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>23,41%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>21,63%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>48,8%</t>
+  </si>
+  <si>
+    <t>43,09%</t>
+  </si>
+  <si>
+    <t>53,81%</t>
+  </si>
+  <si>
+    <t>73,11%</t>
+  </si>
+  <si>
+    <t>66,89%</t>
+  </si>
+  <si>
+    <t>78,23%</t>
+  </si>
+  <si>
+    <t>58,99%</t>
+  </si>
+  <si>
+    <t>54,77%</t>
+  </si>
+  <si>
+    <t>62,71%</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>24,18%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>20,4%</t>
+  </si>
+  <si>
+    <t>20,16%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>24,71%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>40,95%</t>
+  </si>
+  <si>
+    <t>38,2%</t>
+  </si>
+  <si>
+    <t>43,79%</t>
+  </si>
+  <si>
+    <t>72,96%</t>
+  </si>
+  <si>
+    <t>70,17%</t>
+  </si>
+  <si>
+    <t>75,67%</t>
+  </si>
+  <si>
+    <t>53,79%</t>
+  </si>
+  <si>
+    <t>51,51%</t>
+  </si>
+  <si>
+    <t>55,83%</t>
+  </si>
+  <si>
+    <t>21,13%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>23,63%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>21,56%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según la exposición a trabajos al aire libre en su trabajo en 2016 (Tasa respuesta: 35,39%)</t>
+  </si>
+  <si>
+    <t>30,99%</t>
+  </si>
+  <si>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>39,47%</t>
+  </si>
+  <si>
+    <t>75,64%</t>
+  </si>
+  <si>
+    <t>65,43%</t>
+  </si>
+  <si>
+    <t>83,42%</t>
+  </si>
+  <si>
+    <t>50,08%</t>
+  </si>
+  <si>
+    <t>43,86%</t>
+  </si>
+  <si>
+    <t>57,26%</t>
+  </si>
+  <si>
+    <t>31,87%</t>
+  </si>
+  <si>
+    <t>23,21%</t>
+  </si>
+  <si>
+    <t>41,05%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>22,99%</t>
+  </si>
+  <si>
+    <t>24,23%</t>
+  </si>
+  <si>
+    <t>18,41%</t>
+  </si>
+  <si>
+    <t>30,31%</t>
+  </si>
+  <si>
+    <t>17,12%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>25,27%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>28,25%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>26,0%</t>
+  </si>
+  <si>
+    <t>40,87%</t>
+  </si>
+  <si>
+    <t>64,31%</t>
+  </si>
+  <si>
+    <t>54,63%</t>
+  </si>
+  <si>
+    <t>72,7%</t>
+  </si>
+  <si>
+    <t>45,98%</t>
+  </si>
+  <si>
+    <t>39,48%</t>
+  </si>
+  <si>
+    <t>52,27%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>29,35%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>25,15%</t>
+  </si>
+  <si>
+    <t>20,07%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>25,18%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>18,82%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>31,51%</t>
+  </si>
+  <si>
+    <t>24,44%</t>
+  </si>
+  <si>
+    <t>40,22%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>22,7%</t>
+  </si>
+  <si>
+    <t>24,7%</t>
+  </si>
+  <si>
+    <t>19,63%</t>
+  </si>
+  <si>
+    <t>30,42%</t>
+  </si>
+  <si>
+    <t>39,98%</t>
+  </si>
+  <si>
+    <t>31,07%</t>
+  </si>
+  <si>
+    <t>49,02%</t>
+  </si>
+  <si>
+    <t>68,58%</t>
+  </si>
+  <si>
+    <t>56,78%</t>
+  </si>
+  <si>
+    <t>77,02%</t>
+  </si>
+  <si>
+    <t>51,48%</t>
+  </si>
+  <si>
+    <t>45,07%</t>
+  </si>
+  <si>
+    <t>58,41%</t>
+  </si>
+  <si>
+    <t>23,51%</t>
+  </si>
+  <si>
+    <t>16,47%</t>
+  </si>
+  <si>
+    <t>31,15%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>28,72%</t>
+  </si>
+  <si>
+    <t>21,43%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>27,05%</t>
+  </si>
+  <si>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>28,36%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>32,77%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
+  </si>
+  <si>
+    <t>42,15%</t>
+  </si>
+  <si>
+    <t>75,1%</t>
+  </si>
+  <si>
+    <t>63,79%</t>
+  </si>
+  <si>
+    <t>83,9%</t>
+  </si>
+  <si>
+    <t>50,72%</t>
+  </si>
+  <si>
+    <t>43,11%</t>
+  </si>
+  <si>
     <t>57,91%</t>
   </si>
   <si>
-    <t>75,8%</t>
-  </si>
-  <si>
-    <t>48,01%</t>
-  </si>
-  <si>
-    <t>41,52%</t>
-  </si>
-  <si>
-    <t>54,27%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>23,49%</t>
-  </si>
-  <si>
-    <t>19,27%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>27,61%</t>
-  </si>
-  <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
+    <t>20,38%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>29,25%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>24,06%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>24,21%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>27,72%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>18,17%</t>
+  </si>
+  <si>
+    <t>28,01%</t>
+  </si>
+  <si>
+    <t>19,51%</t>
+  </si>
+  <si>
+    <t>37,38%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>24,5%</t>
+  </si>
+  <si>
+    <t>26,21%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>37,12%</t>
+  </si>
+  <si>
+    <t>64,16%</t>
+  </si>
+  <si>
+    <t>50,35%</t>
+  </si>
+  <si>
+    <t>41,74%</t>
+  </si>
+  <si>
+    <t>33,18%</t>
+  </si>
+  <si>
+    <t>50,05%</t>
+  </si>
+  <si>
+    <t>22,75%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>33,9%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>25,87%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>27,2%</t>
+  </si>
+  <si>
+    <t>21,74%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>32,66%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>22,82%</t>
+  </si>
+  <si>
+    <t>29,3%</t>
+  </si>
+  <si>
+    <t>19,97%</t>
+  </si>
+  <si>
+    <t>40,27%</t>
+  </si>
+  <si>
+    <t>14,23%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>24,45%</t>
+  </si>
+  <si>
+    <t>23,13%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>30,76%</t>
+  </si>
+  <si>
+    <t>32,55%</t>
+  </si>
+  <si>
+    <t>24,39%</t>
+  </si>
+  <si>
+    <t>41,95%</t>
+  </si>
+  <si>
+    <t>89,23%</t>
+  </si>
+  <si>
+    <t>80,59%</t>
+  </si>
+  <si>
+    <t>94,92%</t>
+  </si>
+  <si>
+    <t>55,95%</t>
+  </si>
+  <si>
+    <t>63,03%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>24,32%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>28,27%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>31,89%</t>
+  </si>
+  <si>
+    <t>23,44%</t>
+  </si>
+  <si>
+    <t>41,84%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>25,56%</t>
+  </si>
+  <si>
+    <t>38,02%</t>
+  </si>
+  <si>
+    <t>32,86%</t>
+  </si>
+  <si>
+    <t>43,58%</t>
+  </si>
+  <si>
+    <t>58,64%</t>
+  </si>
+  <si>
+    <t>52,1%</t>
+  </si>
+  <si>
+    <t>64,09%</t>
+  </si>
+  <si>
+    <t>47,15%</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>51,45%</t>
+  </si>
+  <si>
+    <t>30,26%</t>
+  </si>
+  <si>
+    <t>41,24%</t>
+  </si>
+  <si>
+    <t>29,63%</t>
+  </si>
+  <si>
+    <t>24,03%</t>
+  </si>
+  <si>
+    <t>35,46%</t>
+  </si>
+  <si>
+    <t>32,95%</t>
+  </si>
+  <si>
+    <t>28,99%</t>
+  </si>
+  <si>
+    <t>36,95%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>51,59%</t>
+  </si>
+  <si>
+    <t>46,04%</t>
+  </si>
+  <si>
+    <t>57,28%</t>
+  </si>
+  <si>
+    <t>75,91%</t>
+  </si>
+  <si>
+    <t>70,01%</t>
+  </si>
+  <si>
+    <t>81,84%</t>
+  </si>
+  <si>
+    <t>61,91%</t>
+  </si>
+  <si>
+    <t>57,93%</t>
+  </si>
+  <si>
+    <t>66,14%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>24,84%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>20,87%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>20,11%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>38,64%</t>
+  </si>
+  <si>
+    <t>36,08%</t>
+  </si>
+  <si>
+    <t>41,57%</t>
+  </si>
+  <si>
+    <t>69,56%</t>
+  </si>
+  <si>
+    <t>66,65%</t>
+  </si>
+  <si>
+    <t>72,44%</t>
+  </si>
+  <si>
+    <t>51,72%</t>
+  </si>
+  <si>
+    <t>49,95%</t>
+  </si>
+  <si>
+    <t>53,8%</t>
+  </si>
+  <si>
+    <t>25,64%</t>
+  </si>
+  <si>
+    <t>28,21%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>20,95%</t>
+  </si>
+  <si>
+    <t>22,64%</t>
+  </si>
+  <si>
+    <t>20,92%</t>
+  </si>
+  <si>
+    <t>24,34%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>Población según la exposición a trabajos al aire libre en su trabajo en 2023 (Tasa respuesta: 20,52%)</t>
+  </si>
+  <si>
+    <t>40,39%</t>
+  </si>
+  <si>
+    <t>52,38%</t>
+  </si>
+  <si>
+    <t>81,81%</t>
+  </si>
+  <si>
+    <t>74,1%</t>
+  </si>
+  <si>
+    <t>88,11%</t>
+  </si>
+  <si>
+    <t>58,14%</t>
+  </si>
+  <si>
+    <t>51,2%</t>
+  </si>
+  <si>
+    <t>65,24%</t>
+  </si>
+  <si>
+    <t>37,8%</t>
+  </si>
+  <si>
+    <t>48,67%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>23,02%</t>
+  </si>
+  <si>
+    <t>28,4%</t>
+  </si>
+  <si>
+    <t>22,03%</t>
+  </si>
+  <si>
+    <t>35,66%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>23,4%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>29,88%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>39,1%</t>
+  </si>
+  <si>
+    <t>73,06%</t>
+  </si>
+  <si>
+    <t>63,14%</t>
+  </si>
+  <si>
+    <t>81,17%</t>
+  </si>
+  <si>
+    <t>47,58%</t>
+  </si>
+  <si>
+    <t>39,63%</t>
+  </si>
+  <si>
+    <t>54,86%</t>
+  </si>
+  <si>
+    <t>31,36%</t>
+  </si>
+  <si>
+    <t>22,95%</t>
+  </si>
+  <si>
+    <t>41,56%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>24,17%</t>
+  </si>
+  <si>
+    <t>24,69%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>31,99%</t>
+  </si>
+  <si>
+    <t>24,15%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>34,65%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>22,73%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>29,21%</t>
+  </si>
+  <si>
+    <t>41,99%</t>
+  </si>
+  <si>
+    <t>52,75%</t>
+  </si>
+  <si>
+    <t>42,2%</t>
+  </si>
+  <si>
+    <t>63,87%</t>
+  </si>
+  <si>
+    <t>40,63%</t>
+  </si>
+  <si>
+    <t>32,31%</t>
+  </si>
+  <si>
+    <t>48,71%</t>
+  </si>
+  <si>
+    <t>28,19%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>40,41%</t>
+  </si>
+  <si>
+    <t>34,45%</t>
+  </si>
+  <si>
+    <t>24,68%</t>
+  </si>
+  <si>
+    <t>46,06%</t>
+  </si>
+  <si>
+    <t>31,23%</t>
+  </si>
+  <si>
+    <t>23,98%</t>
+  </si>
+  <si>
+    <t>40,06%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>25,94%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>26,75%</t>
+  </si>
+  <si>
+    <t>39,45%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>23,47%</t>
+  </si>
+  <si>
+    <t>59,61%</t>
+  </si>
+  <si>
+    <t>46,27%</t>
+  </si>
+  <si>
+    <t>72,45%</t>
+  </si>
+  <si>
+    <t>73,35%</t>
+  </si>
+  <si>
+    <t>49,08%</t>
+  </si>
+  <si>
+    <t>85,75%</t>
+  </si>
+  <si>
+    <t>66,08%</t>
+  </si>
+  <si>
+    <t>54,23%</t>
+  </si>
+  <si>
+    <t>74,84%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>20,71%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>42,55%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>28,35%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>21,25%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>21,7%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>34,29%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>46,02%</t>
+  </si>
+  <si>
+    <t>32,46%</t>
+  </si>
+  <si>
+    <t>59,31%</t>
+  </si>
+  <si>
+    <t>69,86%</t>
+  </si>
+  <si>
+    <t>58,51%</t>
+  </si>
+  <si>
+    <t>80,48%</t>
+  </si>
+  <si>
+    <t>57,84%</t>
+  </si>
+  <si>
+    <t>49,4%</t>
+  </si>
+  <si>
+    <t>66,38%</t>
+  </si>
+  <si>
+    <t>25,81%</t>
+  </si>
+  <si>
+    <t>38,1%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>19,74%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>27,93%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>24,97%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>17,7%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>29,5%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>25,76%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>23,81%</t>
+  </si>
+  <si>
+    <t>42,0%</t>
+  </si>
+  <si>
+    <t>29,92%</t>
+  </si>
+  <si>
+    <t>53,05%</t>
+  </si>
+  <si>
+    <t>70,65%</t>
+  </si>
+  <si>
+    <t>58,01%</t>
+  </si>
+  <si>
+    <t>79,77%</t>
+  </si>
+  <si>
+    <t>54,0%</t>
+  </si>
+  <si>
+    <t>45,72%</t>
+  </si>
+  <si>
+    <t>62,01%</t>
+  </si>
+  <si>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>32,11%</t>
+  </si>
+  <si>
+    <t>17,15%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>27,08%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>27,24%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>25,97%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>18,75%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>19,36%</t>
+  </si>
+  <si>
+    <t>20,32%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>31,44%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>19,17%</t>
+  </si>
+  <si>
+    <t>57,34%</t>
+  </si>
+  <si>
+    <t>48,12%</t>
+  </si>
+  <si>
+    <t>65,64%</t>
+  </si>
+  <si>
+    <t>81,27%</t>
+  </si>
+  <si>
+    <t>74,33%</t>
+  </si>
+  <si>
+    <t>86,23%</t>
+  </si>
+  <si>
+    <t>68,75%</t>
+  </si>
+  <si>
+    <t>62,73%</t>
+  </si>
+  <si>
+    <t>73,78%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>25,71%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
   </si>
   <si>
     <t>13,5%</t>
   </si>
   <si>
-    <t>26,22%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>30,23%</t>
-  </si>
-  <si>
-    <t>23,16%</t>
-  </si>
-  <si>
-    <t>37,4%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>21,45%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>27,03%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>30,82%</t>
-  </si>
-  <si>
-    <t>23,45%</t>
-  </si>
-  <si>
-    <t>38,72%</t>
-  </si>
-  <si>
-    <t>74,65%</t>
-  </si>
-  <si>
-    <t>63,72%</t>
-  </si>
-  <si>
-    <t>83,87%</t>
-  </si>
-  <si>
-    <t>46,89%</t>
-  </si>
-  <si>
-    <t>40,12%</t>
-  </si>
-  <si>
-    <t>53,58%</t>
-  </si>
-  <si>
-    <t>28,32%</t>
-  </si>
-  <si>
-    <t>20,89%</t>
-  </si>
-  <si>
-    <t>35,64%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>21,89%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>27,94%</t>
-  </si>
-  <si>
-    <t>22,3%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>29,34%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>21,66%</t>
-  </si>
-  <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>26,78%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>19,97%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>41,07%</t>
-  </si>
-  <si>
-    <t>34,7%</t>
-  </si>
-  <si>
-    <t>47,32%</t>
-  </si>
-  <si>
-    <t>76,49%</t>
-  </si>
-  <si>
-    <t>69,75%</t>
-  </si>
-  <si>
-    <t>82,7%</t>
-  </si>
-  <si>
-    <t>55,77%</t>
-  </si>
-  <si>
-    <t>51,06%</t>
-  </si>
-  <si>
-    <t>60,85%</t>
-  </si>
-  <si>
-    <t>18,38%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>23,73%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>22,34%</t>
-  </si>
-  <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>17,57%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>23,12%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>22,98%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>28,98%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>33,74%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>45,35%</t>
-  </si>
-  <si>
-    <t>75,56%</t>
-  </si>
-  <si>
-    <t>62,89%</t>
-  </si>
-  <si>
-    <t>86,43%</t>
-  </si>
-  <si>
-    <t>50,75%</t>
-  </si>
-  <si>
-    <t>42,77%</t>
-  </si>
-  <si>
-    <t>59,03%</t>
-  </si>
-  <si>
-    <t>23,9%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>35,32%</t>
-  </si>
-  <si>
-    <t>19,37%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>30,76%</t>
-  </si>
-  <si>
-    <t>22,06%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>29,52%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>20,73%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>30,33%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>41,4%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>27,58%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>37,11%</t>
-  </si>
-  <si>
-    <t>28,53%</t>
-  </si>
-  <si>
-    <t>47,05%</t>
-  </si>
-  <si>
-    <t>65,83%</t>
-  </si>
-  <si>
-    <t>53,19%</t>
-  </si>
-  <si>
-    <t>78,07%</t>
-  </si>
-  <si>
-    <t>46,26%</t>
-  </si>
-  <si>
-    <t>38,54%</t>
-  </si>
-  <si>
-    <t>54,72%</t>
-  </si>
-  <si>
-    <t>26,73%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>35,59%</t>
-  </si>
-  <si>
-    <t>21,53%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>34,72%</t>
-  </si>
-  <si>
-    <t>25,07%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>32,28%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>30,03%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>22,92%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>43,97%</t>
-  </si>
-  <si>
-    <t>37,86%</t>
-  </si>
-  <si>
-    <t>49,68%</t>
-  </si>
-  <si>
-    <t>73,24%</t>
-  </si>
-  <si>
-    <t>79,37%</t>
-  </si>
-  <si>
-    <t>55,7%</t>
-  </si>
-  <si>
-    <t>50,69%</t>
-  </si>
-  <si>
-    <t>60,65%</t>
-  </si>
-  <si>
-    <t>22,04%</t>
-  </si>
-  <si>
-    <t>16,96%</t>
-  </si>
-  <si>
-    <t>27,64%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>23,14%</t>
-  </si>
-  <si>
-    <t>17,73%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>48,8%</t>
-  </si>
-  <si>
-    <t>43,59%</t>
-  </si>
-  <si>
-    <t>54,26%</t>
-  </si>
-  <si>
-    <t>73,11%</t>
-  </si>
-  <si>
-    <t>66,56%</t>
-  </si>
-  <si>
-    <t>78,03%</t>
-  </si>
-  <si>
-    <t>58,99%</t>
-  </si>
-  <si>
-    <t>55,01%</t>
-  </si>
-  <si>
-    <t>62,83%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>23,85%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>20,16%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>24,87%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>40,95%</t>
-  </si>
-  <si>
-    <t>38,06%</t>
-  </si>
-  <si>
-    <t>43,41%</t>
-  </si>
-  <si>
-    <t>72,96%</t>
-  </si>
-  <si>
-    <t>69,7%</t>
-  </si>
-  <si>
-    <t>75,65%</t>
-  </si>
-  <si>
-    <t>53,79%</t>
-  </si>
-  <si>
-    <t>51,67%</t>
-  </si>
-  <si>
-    <t>56,05%</t>
-  </si>
-  <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>18,75%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>20,68%</t>
-  </si>
-  <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>16,57%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según la exposición a trabajos al aire libre en su trabajo en 2015 (Tasa respuesta: 35,39%)</t>
-  </si>
-  <si>
-    <t>30,99%</t>
-  </si>
-  <si>
-    <t>23,18%</t>
-  </si>
-  <si>
-    <t>40,35%</t>
-  </si>
-  <si>
-    <t>75,64%</t>
-  </si>
-  <si>
-    <t>65,7%</t>
-  </si>
-  <si>
-    <t>50,08%</t>
-  </si>
-  <si>
-    <t>44,01%</t>
-  </si>
-  <si>
-    <t>56,6%</t>
-  </si>
-  <si>
-    <t>31,87%</t>
-  </si>
-  <si>
-    <t>23,76%</t>
-  </si>
-  <si>
-    <t>40,37%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>22,76%</t>
-  </si>
-  <si>
-    <t>24,23%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>30,37%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>25,3%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>28,55%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>26,82%</t>
-  </si>
-  <si>
-    <t>41,24%</t>
-  </si>
-  <si>
-    <t>64,31%</t>
-  </si>
-  <si>
-    <t>54,59%</t>
-  </si>
-  <si>
-    <t>73,12%</t>
-  </si>
-  <si>
-    <t>45,98%</t>
-  </si>
-  <si>
-    <t>39,66%</t>
-  </si>
-  <si>
-    <t>52,17%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>24,58%</t>
-  </si>
-  <si>
-    <t>20,07%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>25,22%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>31,51%</t>
-  </si>
-  <si>
-    <t>24,11%</t>
-  </si>
-  <si>
-    <t>39,32%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>22,26%</t>
-  </si>
-  <si>
-    <t>24,7%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>30,15%</t>
-  </si>
-  <si>
-    <t>39,98%</t>
-  </si>
-  <si>
-    <t>31,96%</t>
-  </si>
-  <si>
-    <t>48,41%</t>
-  </si>
-  <si>
-    <t>68,58%</t>
-  </si>
-  <si>
-    <t>58,08%</t>
-  </si>
-  <si>
-    <t>78,19%</t>
-  </si>
-  <si>
-    <t>51,48%</t>
-  </si>
-  <si>
-    <t>45,05%</t>
-  </si>
-  <si>
-    <t>58,22%</t>
-  </si>
-  <si>
-    <t>23,51%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
-  </si>
-  <si>
-    <t>31,89%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>27,63%</t>
-  </si>
-  <si>
-    <t>21,43%</t>
-  </si>
-  <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>26,99%</t>
-  </si>
-  <si>
-    <t>20,53%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>28,33%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>32,77%</t>
-  </si>
-  <si>
-    <t>24,01%</t>
-  </si>
-  <si>
-    <t>41,76%</t>
-  </si>
-  <si>
-    <t>75,1%</t>
-  </si>
-  <si>
-    <t>83,22%</t>
-  </si>
-  <si>
-    <t>50,72%</t>
-  </si>
-  <si>
-    <t>43,28%</t>
-  </si>
-  <si>
-    <t>57,85%</t>
-  </si>
-  <si>
-    <t>20,38%</t>
-  </si>
-  <si>
-    <t>27,88%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>24,56%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>24,55%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>27,52%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>28,01%</t>
-  </si>
-  <si>
-    <t>37,46%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>25,17%</t>
-  </si>
-  <si>
-    <t>26,21%</t>
-  </si>
-  <si>
-    <t>38,24%</t>
-  </si>
-  <si>
-    <t>64,16%</t>
-  </si>
-  <si>
-    <t>51,56%</t>
-  </si>
-  <si>
-    <t>76,12%</t>
-  </si>
-  <si>
-    <t>41,74%</t>
-  </si>
-  <si>
-    <t>33,15%</t>
-  </si>
-  <si>
-    <t>50,03%</t>
-  </si>
-  <si>
-    <t>22,75%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>34,24%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>25,94%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>27,3%</t>
-  </si>
-  <si>
-    <t>21,74%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>32,99%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>23,13%</t>
-  </si>
-  <si>
-    <t>29,3%</t>
-  </si>
-  <si>
-    <t>19,67%</t>
-  </si>
-  <si>
-    <t>39,72%</t>
-  </si>
-  <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>24,4%</t>
-  </si>
-  <si>
-    <t>16,56%</t>
-  </si>
-  <si>
-    <t>30,49%</t>
-  </si>
-  <si>
-    <t>32,55%</t>
-  </si>
-  <si>
-    <t>23,79%</t>
-  </si>
-  <si>
-    <t>41,44%</t>
-  </si>
-  <si>
-    <t>89,23%</t>
-  </si>
-  <si>
-    <t>81,08%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>55,95%</t>
-  </si>
-  <si>
-    <t>48,46%</t>
-  </si>
-  <si>
-    <t>62,42%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>24,79%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>26,97%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>41,55%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>19,69%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>25,81%</t>
-  </si>
-  <si>
-    <t>38,02%</t>
-  </si>
-  <si>
-    <t>32,7%</t>
-  </si>
-  <si>
-    <t>43,27%</t>
-  </si>
-  <si>
-    <t>58,64%</t>
-  </si>
-  <si>
-    <t>52,68%</t>
-  </si>
-  <si>
-    <t>64,25%</t>
-  </si>
-  <si>
-    <t>47,15%</t>
-  </si>
-  <si>
-    <t>43,16%</t>
-  </si>
-  <si>
-    <t>51,15%</t>
-  </si>
-  <si>
-    <t>35,58%</t>
-  </si>
-  <si>
-    <t>30,1%</t>
-  </si>
-  <si>
-    <t>41,01%</t>
-  </si>
-  <si>
-    <t>29,63%</t>
-  </si>
-  <si>
-    <t>24,52%</t>
-  </si>
-  <si>
-    <t>35,19%</t>
-  </si>
-  <si>
-    <t>32,95%</t>
-  </si>
-  <si>
-    <t>29,56%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>51,59%</t>
-  </si>
-  <si>
-    <t>46,12%</t>
-  </si>
-  <si>
-    <t>57,64%</t>
-  </si>
-  <si>
-    <t>75,91%</t>
-  </si>
-  <si>
-    <t>70,25%</t>
-  </si>
-  <si>
-    <t>81,03%</t>
-  </si>
-  <si>
-    <t>61,91%</t>
-  </si>
-  <si>
-    <t>57,53%</t>
-  </si>
-  <si>
-    <t>65,68%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>23,84%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>28,22%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>36,69%</t>
+  </si>
+  <si>
+    <t>61,63%</t>
+  </si>
+  <si>
+    <t>54,5%</t>
+  </si>
+  <si>
+    <t>68,78%</t>
+  </si>
+  <si>
+    <t>40,08%</t>
+  </si>
+  <si>
+    <t>27,91%</t>
+  </si>
+  <si>
+    <t>47,08%</t>
+  </si>
+  <si>
+    <t>20,88%</t>
+  </si>
+  <si>
+    <t>27,96%</t>
+  </si>
+  <si>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>27,34%</t>
+  </si>
+  <si>
+    <t>20,94%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>26,06%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>34,47%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
   </si>
   <si>
     <t>24,99%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>19,92%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>38,64%</t>
-  </si>
-  <si>
-    <t>35,9%</t>
-  </si>
-  <si>
-    <t>41,46%</t>
-  </si>
-  <si>
-    <t>69,56%</t>
-  </si>
-  <si>
-    <t>66,61%</t>
-  </si>
-  <si>
-    <t>72,63%</t>
-  </si>
-  <si>
-    <t>51,72%</t>
-  </si>
-  <si>
-    <t>49,59%</t>
-  </si>
-  <si>
-    <t>53,81%</t>
-  </si>
-  <si>
-    <t>25,64%</t>
-  </si>
-  <si>
-    <t>23,38%</t>
-  </si>
-  <si>
-    <t>28,2%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>21,08%</t>
-  </si>
-  <si>
-    <t>22,64%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>24,35%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>18,54%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>Población según la exposición a trabajos al aire libre en su trabajo en 2023 (Tasa respuesta: 20,52%)</t>
-  </si>
-  <si>
-    <t>40,39%</t>
-  </si>
-  <si>
-    <t>52,38%</t>
-  </si>
-  <si>
-    <t>81,81%</t>
-  </si>
-  <si>
-    <t>74,1%</t>
-  </si>
-  <si>
-    <t>88,11%</t>
-  </si>
-  <si>
-    <t>58,14%</t>
-  </si>
-  <si>
-    <t>51,2%</t>
-  </si>
-  <si>
-    <t>65,24%</t>
-  </si>
-  <si>
-    <t>37,8%</t>
-  </si>
-  <si>
-    <t>27,26%</t>
-  </si>
-  <si>
-    <t>48,67%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>23,02%</t>
-  </si>
-  <si>
-    <t>28,4%</t>
-  </si>
-  <si>
-    <t>22,03%</t>
-  </si>
-  <si>
-    <t>35,66%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>23,4%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>29,88%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>39,1%</t>
-  </si>
-  <si>
-    <t>73,06%</t>
-  </si>
-  <si>
-    <t>63,14%</t>
-  </si>
-  <si>
-    <t>81,17%</t>
-  </si>
-  <si>
-    <t>47,58%</t>
-  </si>
-  <si>
-    <t>39,63%</t>
-  </si>
-  <si>
-    <t>54,86%</t>
-  </si>
-  <si>
-    <t>31,36%</t>
-  </si>
-  <si>
-    <t>22,95%</t>
-  </si>
-  <si>
-    <t>41,56%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>24,17%</t>
-  </si>
-  <si>
-    <t>24,69%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>31,99%</t>
-  </si>
-  <si>
-    <t>24,15%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>34,65%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>22,73%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>29,21%</t>
-  </si>
-  <si>
-    <t>41,99%</t>
-  </si>
-  <si>
-    <t>52,75%</t>
-  </si>
-  <si>
-    <t>42,2%</t>
-  </si>
-  <si>
-    <t>63,87%</t>
-  </si>
-  <si>
-    <t>40,63%</t>
-  </si>
-  <si>
-    <t>32,31%</t>
-  </si>
-  <si>
-    <t>48,71%</t>
-  </si>
-  <si>
-    <t>28,19%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>40,41%</t>
-  </si>
-  <si>
-    <t>34,45%</t>
-  </si>
-  <si>
-    <t>24,68%</t>
-  </si>
-  <si>
-    <t>46,06%</t>
-  </si>
-  <si>
-    <t>31,23%</t>
-  </si>
-  <si>
-    <t>23,98%</t>
-  </si>
-  <si>
-    <t>40,06%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>26,75%</t>
-  </si>
-  <si>
-    <t>16,47%</t>
-  </si>
-  <si>
-    <t>39,45%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>23,47%</t>
-  </si>
-  <si>
-    <t>59,61%</t>
-  </si>
-  <si>
-    <t>46,27%</t>
-  </si>
-  <si>
-    <t>72,45%</t>
-  </si>
-  <si>
-    <t>73,35%</t>
-  </si>
-  <si>
-    <t>49,08%</t>
-  </si>
-  <si>
-    <t>85,75%</t>
-  </si>
-  <si>
-    <t>66,08%</t>
-  </si>
-  <si>
-    <t>54,23%</t>
-  </si>
-  <si>
-    <t>74,84%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>20,71%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>42,55%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>28,35%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>21,7%</t>
-  </si>
-  <si>
-    <t>34,29%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>23,58%</t>
-  </si>
-  <si>
-    <t>46,02%</t>
-  </si>
-  <si>
-    <t>32,46%</t>
-  </si>
-  <si>
-    <t>59,31%</t>
-  </si>
-  <si>
-    <t>69,86%</t>
-  </si>
-  <si>
-    <t>58,51%</t>
-  </si>
-  <si>
-    <t>80,48%</t>
-  </si>
-  <si>
-    <t>57,84%</t>
-  </si>
-  <si>
-    <t>49,4%</t>
-  </si>
-  <si>
-    <t>66,38%</t>
-  </si>
-  <si>
-    <t>38,1%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>23,8%</t>
-  </si>
-  <si>
-    <t>19,74%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>27,93%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>24,97%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>17,7%</t>
-  </si>
-  <si>
-    <t>29,5%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>25,76%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>23,81%</t>
-  </si>
-  <si>
-    <t>42,0%</t>
-  </si>
-  <si>
-    <t>29,92%</t>
-  </si>
-  <si>
-    <t>53,05%</t>
-  </si>
-  <si>
-    <t>70,65%</t>
-  </si>
-  <si>
-    <t>58,01%</t>
-  </si>
-  <si>
-    <t>79,77%</t>
-  </si>
-  <si>
-    <t>54,0%</t>
-  </si>
-  <si>
-    <t>45,72%</t>
-  </si>
-  <si>
-    <t>62,01%</t>
-  </si>
-  <si>
-    <t>22,08%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>32,11%</t>
-  </si>
-  <si>
-    <t>17,15%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>27,08%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>27,24%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>25,97%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>19,36%</t>
-  </si>
-  <si>
-    <t>20,32%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>31,44%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>19,17%</t>
-  </si>
-  <si>
-    <t>57,34%</t>
-  </si>
-  <si>
-    <t>48,12%</t>
-  </si>
-  <si>
-    <t>65,64%</t>
-  </si>
-  <si>
-    <t>81,27%</t>
-  </si>
-  <si>
-    <t>74,33%</t>
-  </si>
-  <si>
-    <t>86,23%</t>
-  </si>
-  <si>
-    <t>68,75%</t>
-  </si>
-  <si>
-    <t>62,73%</t>
-  </si>
-  <si>
-    <t>73,78%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>25,71%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>23,84%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>28,22%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>36,69%</t>
-  </si>
-  <si>
-    <t>61,63%</t>
-  </si>
-  <si>
-    <t>54,5%</t>
-  </si>
-  <si>
-    <t>68,78%</t>
-  </si>
-  <si>
-    <t>40,08%</t>
-  </si>
-  <si>
-    <t>27,91%</t>
-  </si>
-  <si>
-    <t>47,08%</t>
-  </si>
-  <si>
-    <t>20,88%</t>
-  </si>
-  <si>
-    <t>27,96%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>27,34%</t>
-  </si>
-  <si>
-    <t>20,94%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>26,06%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>34,47%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>64,09%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
   </si>
   <si>
     <t>14,51%</t>
@@ -3062,7 +3062,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3737DDD-EDBF-4037-BFA4-B23B5AA8AE18}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12150EAF-4E01-48EC-8D72-873DB95BAF04}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3808,7 +3808,7 @@
         <v>79</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3823,13 +3823,13 @@
         <v>26395</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="H17" s="7">
         <v>6</v>
@@ -3838,13 +3838,13 @@
         <v>6054</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="M17" s="7">
         <v>31</v>
@@ -3853,13 +3853,13 @@
         <v>32449</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3915,7 +3915,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3927,13 +3927,13 @@
         <v>109890</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="H19" s="7">
         <v>134</v>
@@ -3942,13 +3942,13 @@
         <v>145202</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="M19" s="7">
         <v>238</v>
@@ -3957,13 +3957,13 @@
         <v>255092</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3978,13 +3978,13 @@
         <v>49177</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="H20" s="7">
         <v>29</v>
@@ -3993,13 +3993,13 @@
         <v>31674</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="M20" s="7">
         <v>75</v>
@@ -4008,13 +4008,13 @@
         <v>80851</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4080,13 +4080,13 @@
         <v>61499</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="H22" s="7">
         <v>8</v>
@@ -4095,13 +4095,13 @@
         <v>9304</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="M22" s="7">
         <v>66</v>
@@ -4110,13 +4110,13 @@
         <v>70803</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4172,7 +4172,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -4184,13 +4184,13 @@
         <v>27394</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="H24" s="7">
         <v>41</v>
@@ -4199,13 +4199,13 @@
         <v>42035</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="M24" s="7">
         <v>65</v>
@@ -4214,13 +4214,13 @@
         <v>69428</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4235,13 +4235,13 @@
         <v>19406</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="H25" s="7">
         <v>11</v>
@@ -4250,13 +4250,13 @@
         <v>10777</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="M25" s="7">
         <v>29</v>
@@ -4265,13 +4265,13 @@
         <v>30183</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4286,13 +4286,13 @@
         <v>9762</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
@@ -4301,13 +4301,13 @@
         <v>998</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="M26" s="7">
         <v>11</v>
@@ -4316,13 +4316,13 @@
         <v>10760</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4337,13 +4337,13 @@
         <v>24618</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F27" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="G27" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="H27" s="7">
         <v>1</v>
@@ -4352,13 +4352,13 @@
         <v>1825</v>
       </c>
       <c r="J27" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="L27" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="M27" s="7">
         <v>23</v>
@@ -4367,13 +4367,13 @@
         <v>26443</v>
       </c>
       <c r="O27" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="P27" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="P27" s="7" t="s">
+      <c r="Q27" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -4429,7 +4429,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -4441,13 +4441,13 @@
         <v>43886</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="H29" s="7">
         <v>35</v>
@@ -4456,13 +4456,13 @@
         <v>36397</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>168</v>
       </c>
       <c r="M29" s="7">
         <v>76</v>
@@ -4471,13 +4471,13 @@
         <v>80284</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4492,13 +4492,13 @@
         <v>31608</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="H30" s="7">
         <v>11</v>
@@ -4507,13 +4507,13 @@
         <v>11902</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>177</v>
       </c>
       <c r="M30" s="7">
         <v>39</v>
@@ -4522,13 +4522,13 @@
         <v>43510</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4543,13 +4543,13 @@
         <v>18709</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="G31" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="H31" s="7">
         <v>2</v>
@@ -4558,13 +4558,13 @@
         <v>2908</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="M31" s="7">
         <v>20</v>
@@ -4573,13 +4573,13 @@
         <v>21617</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q31" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4594,13 +4594,13 @@
         <v>24063</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="H32" s="7">
         <v>4</v>
@@ -4609,13 +4609,13 @@
         <v>4084</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>194</v>
       </c>
       <c r="M32" s="7">
         <v>26</v>
@@ -4624,13 +4624,13 @@
         <v>28147</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4686,7 +4686,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -4698,13 +4698,13 @@
         <v>119016</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>201</v>
       </c>
       <c r="H34" s="7">
         <v>125</v>
@@ -4713,13 +4713,13 @@
         <v>132650</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>203</v>
       </c>
       <c r="M34" s="7">
         <v>232</v>
@@ -4728,13 +4728,13 @@
         <v>251667</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="P34" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="P34" s="7" t="s">
+      <c r="Q34" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4749,13 +4749,13 @@
         <v>59651</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="F35" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="F35" s="7" t="s">
+      <c r="G35" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>209</v>
       </c>
       <c r="H35" s="7">
         <v>25</v>
@@ -4764,7 +4764,7 @@
         <v>27155</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>143</v>
+        <v>209</v>
       </c>
       <c r="K35" s="7" t="s">
         <v>210</v>
@@ -4806,7 +4806,7 @@
         <v>215</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>183</v>
+        <v>216</v>
       </c>
       <c r="H36" s="7">
         <v>15</v>
@@ -4815,13 +4815,13 @@
         <v>16130</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M36" s="7">
         <v>60</v>
@@ -4830,7 +4830,7 @@
         <v>64125</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>219</v>
+        <v>100</v>
       </c>
       <c r="P36" s="7" t="s">
         <v>220</v>
@@ -4857,7 +4857,7 @@
         <v>223</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>175</v>
+        <v>224</v>
       </c>
       <c r="H37" s="7">
         <v>5</v>
@@ -4866,13 +4866,13 @@
         <v>5181</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M37" s="7">
         <v>47</v>
@@ -4881,13 +4881,13 @@
         <v>49218</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>229</v>
+        <v>100</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -5027,7 +5027,7 @@
         <v>244</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>245</v>
+        <v>138</v>
       </c>
       <c r="M40" s="7">
         <v>99</v>
@@ -5036,13 +5036,13 @@
         <v>107192</v>
       </c>
       <c r="O40" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="P40" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="P40" s="7" t="s">
+      <c r="Q40" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="Q40" s="7" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -5057,13 +5057,13 @@
         <v>72542</v>
       </c>
       <c r="E41" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="F41" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="F41" s="7" t="s">
+      <c r="G41" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="G41" s="7" t="s">
-        <v>251</v>
       </c>
       <c r="H41" s="7">
         <v>15</v>
@@ -5072,13 +5072,13 @@
         <v>16215</v>
       </c>
       <c r="J41" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="K41" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="K41" s="7" t="s">
+      <c r="L41" s="7" t="s">
         <v>253</v>
-      </c>
-      <c r="L41" s="7" t="s">
-        <v>254</v>
       </c>
       <c r="M41" s="7">
         <v>85</v>
@@ -5087,13 +5087,13 @@
         <v>88757</v>
       </c>
       <c r="O41" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="P41" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="P41" s="7" t="s">
+      <c r="Q41" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="Q41" s="7" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -5108,13 +5108,13 @@
         <v>41882</v>
       </c>
       <c r="E42" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="F42" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="F42" s="7" t="s">
+      <c r="G42" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>260</v>
       </c>
       <c r="H42" s="7">
         <v>14</v>
@@ -5123,10 +5123,10 @@
         <v>16192</v>
       </c>
       <c r="J42" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="K42" s="7" t="s">
         <v>261</v>
-      </c>
-      <c r="K42" s="7" t="s">
-        <v>253</v>
       </c>
       <c r="L42" s="7" t="s">
         <v>262</v>
@@ -5278,10 +5278,10 @@
         <v>151411</v>
       </c>
       <c r="J45" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="K45" s="7" t="s">
         <v>278</v>
-      </c>
-      <c r="K45" s="7" t="s">
-        <v>215</v>
       </c>
       <c r="L45" s="7" t="s">
         <v>279</v>
@@ -5296,10 +5296,10 @@
         <v>280</v>
       </c>
       <c r="P45" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q45" s="7" t="s">
         <v>281</v>
-      </c>
-      <c r="Q45" s="7" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -5314,13 +5314,13 @@
         <v>260847</v>
       </c>
       <c r="E46" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="F46" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="F46" s="7" t="s">
+      <c r="G46" s="7" t="s">
         <v>284</v>
-      </c>
-      <c r="G46" s="7" t="s">
-        <v>285</v>
       </c>
       <c r="H46" s="7">
         <v>46</v>
@@ -5329,13 +5329,13 @@
         <v>50704</v>
       </c>
       <c r="J46" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="K46" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="K46" s="7" t="s">
+      <c r="L46" s="7" t="s">
         <v>287</v>
-      </c>
-      <c r="L46" s="7" t="s">
-        <v>288</v>
       </c>
       <c r="M46" s="7">
         <v>294</v>
@@ -5344,10 +5344,10 @@
         <v>311551</v>
       </c>
       <c r="O46" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="P46" s="7" t="s">
         <v>289</v>
-      </c>
-      <c r="P46" s="7" t="s">
-        <v>258</v>
       </c>
       <c r="Q46" s="7" t="s">
         <v>290</v>
@@ -5481,7 +5481,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FB5D07F-3789-48E6-BAD1-5B2903B7AABD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66EFB103-E5F8-4DA6-A298-30892251EE81}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5626,7 +5626,7 @@
         <v>306</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>59</v>
+        <v>307</v>
       </c>
       <c r="M4" s="7">
         <v>113</v>
@@ -5635,13 +5635,13 @@
         <v>118284</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5656,13 +5656,13 @@
         <v>43094</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H5" s="7">
         <v>13</v>
@@ -5671,13 +5671,13 @@
         <v>14149</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="M5" s="7">
         <v>51</v>
@@ -5686,13 +5686,13 @@
         <v>57243</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5707,13 +5707,13 @@
         <v>23151</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H6" s="7">
         <v>4</v>
@@ -5722,13 +5722,13 @@
         <v>3871</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="M6" s="7">
         <v>22</v>
@@ -5737,10 +5737,10 @@
         <v>27022</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>326</v>
+        <v>190</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>327</v>
@@ -5791,10 +5791,10 @@
         <v>334</v>
       </c>
       <c r="P7" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>335</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5862,13 +5862,13 @@
         <v>57466</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F9" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>337</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>338</v>
       </c>
       <c r="H9" s="7">
         <v>71</v>
@@ -5877,13 +5877,13 @@
         <v>73103</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>339</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>340</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>341</v>
       </c>
       <c r="M9" s="7">
         <v>125</v>
@@ -5892,13 +5892,13 @@
         <v>130569</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>343</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5913,13 +5913,13 @@
         <v>37963</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>345</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>346</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="H10" s="7">
         <v>18</v>
@@ -5928,13 +5928,13 @@
         <v>19043</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>347</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>348</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>349</v>
       </c>
       <c r="M10" s="7">
         <v>54</v>
@@ -5943,13 +5943,13 @@
         <v>57006</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>350</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>351</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5964,13 +5964,13 @@
         <v>21212</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F11" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>353</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>354</v>
       </c>
       <c r="H11" s="7">
         <v>5</v>
@@ -5979,13 +5979,13 @@
         <v>5050</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>355</v>
       </c>
-      <c r="K11" s="7" t="s">
-        <v>356</v>
-      </c>
       <c r="L11" s="7" t="s">
-        <v>357</v>
+        <v>262</v>
       </c>
       <c r="M11" s="7">
         <v>24</v>
@@ -5994,13 +5994,13 @@
         <v>26262</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>109</v>
+        <v>215</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6015,13 +6015,13 @@
         <v>53656</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>360</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>362</v>
       </c>
       <c r="H12" s="7">
         <v>15</v>
@@ -6030,13 +6030,13 @@
         <v>16484</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>363</v>
+        <v>116</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="M12" s="7">
         <v>63</v>
@@ -6045,13 +6045,13 @@
         <v>70140</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6119,13 +6119,13 @@
         <v>49521</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="H14" s="7">
         <v>58</v>
@@ -6134,13 +6134,13 @@
         <v>57149</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="M14" s="7">
         <v>110</v>
@@ -6149,13 +6149,13 @@
         <v>106669</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6170,13 +6170,13 @@
         <v>29126</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="H15" s="7">
         <v>16</v>
@@ -6185,13 +6185,13 @@
         <v>15277</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>66</v>
+        <v>379</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="M15" s="7">
         <v>46</v>
@@ -6200,13 +6200,13 @@
         <v>44403</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q15" s="7" t="s">
         <v>383</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>384</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -6221,13 +6221,13 @@
         <v>25430</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>386</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>388</v>
       </c>
       <c r="H16" s="7">
         <v>4</v>
@@ -6236,13 +6236,13 @@
         <v>4372</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>389</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>390</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>313</v>
       </c>
       <c r="M16" s="7">
         <v>31</v>
@@ -6251,13 +6251,13 @@
         <v>29802</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>391</v>
       </c>
-      <c r="P16" s="7" t="s">
-        <v>392</v>
-      </c>
       <c r="Q16" s="7" t="s">
-        <v>393</v>
+        <v>154</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6272,13 +6272,13 @@
         <v>19795</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>244</v>
+        <v>393</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>72</v>
+        <v>141</v>
       </c>
       <c r="H17" s="7">
         <v>7</v>
@@ -6287,13 +6287,13 @@
         <v>6539</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="K17" s="7" t="s">
-        <v>396</v>
-      </c>
       <c r="L17" s="7" t="s">
-        <v>397</v>
+        <v>290</v>
       </c>
       <c r="M17" s="7">
         <v>28</v>
@@ -6302,13 +6302,13 @@
         <v>26334</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>398</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>399</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6364,7 +6364,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6376,13 +6376,13 @@
         <v>36422</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>401</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>402</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>403</v>
       </c>
       <c r="H19" s="7">
         <v>59</v>
@@ -6391,13 +6391,13 @@
         <v>61476</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>404</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>405</v>
       </c>
       <c r="M19" s="7">
         <v>93</v>
@@ -6406,13 +6406,13 @@
         <v>97898</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>406</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>407</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6427,10 +6427,10 @@
         <v>22656</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>409</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>35</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>410</v>
@@ -6442,10 +6442,10 @@
         <v>12582</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>411</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>412</v>
@@ -6532,10 +6532,10 @@
         <v>425</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>240</v>
+        <v>426</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="H22" s="7">
         <v>4</v>
@@ -6544,13 +6544,13 @@
         <v>4472</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="M22" s="7">
         <v>32</v>
@@ -6559,10 +6559,10 @@
         <v>35599</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>431</v>
+        <v>288</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>432</v>
@@ -6621,7 +6621,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -6636,10 +6636,10 @@
         <v>433</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>108</v>
+        <v>434</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="H24" s="7">
         <v>38</v>
@@ -6648,13 +6648,13 @@
         <v>35554</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>437</v>
+        <v>57</v>
       </c>
       <c r="M24" s="7">
         <v>60</v>
@@ -6717,10 +6717,10 @@
         <v>447</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>35</v>
+        <v>448</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6735,13 +6735,13 @@
         <v>17389</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="H26" s="7">
         <v>4</v>
@@ -6750,13 +6750,13 @@
         <v>3603</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="M26" s="7">
         <v>21</v>
@@ -6765,13 +6765,13 @@
         <v>20993</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6786,13 +6786,13 @@
         <v>23431</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="H27" s="7">
         <v>8</v>
@@ -6801,13 +6801,13 @@
         <v>7886</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="M27" s="7">
         <v>31</v>
@@ -6816,13 +6816,13 @@
         <v>31318</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>457</v>
+        <v>465</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -6878,7 +6878,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -6890,13 +6890,13 @@
         <v>34989</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="H29" s="7">
         <v>69</v>
@@ -6905,13 +6905,13 @@
         <v>67432</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="M29" s="7">
         <v>103</v>
@@ -6920,13 +6920,13 @@
         <v>102422</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>473</v>
+        <v>368</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6941,13 +6941,13 @@
         <v>18092</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="H30" s="7">
         <v>5</v>
@@ -6956,10 +6956,10 @@
         <v>4843</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>479</v>
+        <v>76</v>
       </c>
       <c r="L30" s="7" t="s">
         <v>480</v>
@@ -7010,7 +7010,7 @@
         <v>487</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L31" s="7" t="s">
         <v>488</v>
@@ -7022,13 +7022,13 @@
         <v>21671</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>256</v>
+        <v>489</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -7043,13 +7043,13 @@
         <v>34281</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>380</v>
+        <v>492</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>242</v>
+        <v>493</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="H32" s="7">
         <v>2</v>
@@ -7058,13 +7058,13 @@
         <v>1763</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>479</v>
+        <v>495</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="M32" s="7">
         <v>35</v>
@@ -7073,13 +7073,13 @@
         <v>36044</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7135,7 +7135,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -7147,13 +7147,13 @@
         <v>135989</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="H34" s="7">
         <v>160</v>
@@ -7162,13 +7162,13 @@
         <v>166538</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="M34" s="7">
         <v>279</v>
@@ -7177,13 +7177,13 @@
         <v>302527</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -7198,13 +7198,13 @@
         <v>127288</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>505</v>
+        <v>175</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="H35" s="7">
         <v>79</v>
@@ -7213,13 +7213,13 @@
         <v>84137</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="M35" s="7">
         <v>189</v>
@@ -7228,13 +7228,13 @@
         <v>211425</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>45</v>
+        <v>516</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -7249,13 +7249,13 @@
         <v>48842</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>450</v>
+        <v>517</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>513</v>
+        <v>518</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>514</v>
+        <v>519</v>
       </c>
       <c r="H36" s="7">
         <v>27</v>
@@ -7264,13 +7264,13 @@
         <v>26487</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>516</v>
+        <v>251</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>289</v>
+        <v>29</v>
       </c>
       <c r="M36" s="7">
         <v>68</v>
@@ -7279,13 +7279,13 @@
         <v>75329</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -7300,13 +7300,13 @@
         <v>45583</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>520</v>
+        <v>333</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="H37" s="7">
         <v>7</v>
@@ -7315,13 +7315,13 @@
         <v>6822</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>524</v>
+        <v>324</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="M37" s="7">
         <v>48</v>
@@ -7330,13 +7330,13 @@
         <v>52406</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -7404,13 +7404,13 @@
         <v>168250</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="H39" s="7">
         <v>175</v>
@@ -7419,13 +7419,13 @@
         <v>182542</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="M39" s="7">
         <v>335</v>
@@ -7434,13 +7434,13 @@
         <v>350793</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -7455,13 +7455,13 @@
         <v>65633</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>185</v>
+        <v>540</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="H40" s="7">
         <v>32</v>
@@ -7473,10 +7473,10 @@
         <v>297</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>541</v>
+        <v>291</v>
       </c>
       <c r="M40" s="7">
         <v>95</v>
@@ -7485,13 +7485,13 @@
         <v>99109</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -7506,13 +7506,13 @@
         <v>50870</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>299</v>
+        <v>546</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>545</v>
+        <v>79</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="H41" s="7">
         <v>16</v>
@@ -7521,13 +7521,13 @@
         <v>15959</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>244</v>
+        <v>550</v>
       </c>
       <c r="M41" s="7">
         <v>66</v>
@@ -7536,13 +7536,13 @@
         <v>66829</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -7557,13 +7557,13 @@
         <v>41365</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>550</v>
+        <v>555</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>522</v>
+        <v>327</v>
       </c>
       <c r="H42" s="7">
         <v>8</v>
@@ -7572,13 +7572,13 @@
         <v>8494</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>555</v>
+        <v>548</v>
       </c>
       <c r="M42" s="7">
         <v>48</v>
@@ -7587,13 +7587,13 @@
         <v>49859</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -7661,13 +7661,13 @@
         <v>545508</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="H44" s="7">
         <v>704</v>
@@ -7676,13 +7676,13 @@
         <v>720170</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="M44" s="7">
         <v>1218</v>
@@ -7691,13 +7691,13 @@
         <v>1265678</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -7712,13 +7712,13 @@
         <v>362042</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>569</v>
+        <v>465</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="H45" s="7">
         <v>185</v>
@@ -7727,13 +7727,13 @@
         <v>191882</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="M45" s="7">
         <v>517</v>
@@ -7742,13 +7742,13 @@
         <v>553924</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -7763,13 +7763,13 @@
         <v>227972</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>384</v>
+        <v>578</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="H46" s="7">
         <v>64</v>
@@ -7778,13 +7778,13 @@
         <v>64201</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="M46" s="7">
         <v>274</v>
@@ -7793,13 +7793,13 @@
         <v>292173</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>582</v>
+        <v>174</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -7814,13 +7814,13 @@
         <v>276320</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>367</v>
+        <v>586</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>257</v>
+        <v>292</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>585</v>
+        <v>450</v>
       </c>
       <c r="H47" s="7">
         <v>58</v>
@@ -7829,13 +7829,13 @@
         <v>59041</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>588</v>
+        <v>75</v>
       </c>
       <c r="M47" s="7">
         <v>316</v>
@@ -7930,7 +7930,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81514EF7-9B6F-4A09-B071-537FA6F531BA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAD0B052-824A-4EFE-9C52-DAA0B87CFD93}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8057,7 +8057,7 @@
         <v>593</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>594</v>
@@ -8108,10 +8108,10 @@
         <v>601</v>
       </c>
       <c r="F5" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>602</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>603</v>
       </c>
       <c r="H5" s="7">
         <v>23</v>
@@ -8120,13 +8120,13 @@
         <v>10259</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>603</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>604</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>605</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>606</v>
       </c>
       <c r="M5" s="7">
         <v>66</v>
@@ -8135,13 +8135,13 @@
         <v>42863</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>606</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>607</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>608</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>609</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -8156,13 +8156,13 @@
         <v>13000</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>609</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>610</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>611</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>612</v>
       </c>
       <c r="H6" s="7">
         <v>3</v>
@@ -8171,13 +8171,13 @@
         <v>1503</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>612</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>613</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>614</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>555</v>
       </c>
       <c r="M6" s="7">
         <v>20</v>
@@ -8222,7 +8222,7 @@
         <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>621</v>
@@ -8237,13 +8237,13 @@
         <v>5810</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>623</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>624</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>625</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -8311,13 +8311,13 @@
         <v>35877</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>625</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>626</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>627</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>628</v>
       </c>
       <c r="H9" s="7">
         <v>74</v>
@@ -8326,13 +8326,13 @@
         <v>60937</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>628</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>629</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>630</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>631</v>
       </c>
       <c r="M9" s="7">
         <v>102</v>
@@ -8341,13 +8341,13 @@
         <v>96813</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>631</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>632</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>633</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>634</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -8362,13 +8362,13 @@
         <v>37650</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>634</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>635</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>636</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>637</v>
       </c>
       <c r="H10" s="7">
         <v>17</v>
@@ -8377,13 +8377,13 @@
         <v>12590</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>637</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>638</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>639</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>640</v>
       </c>
       <c r="M10" s="7">
         <v>47</v>
@@ -8392,13 +8392,13 @@
         <v>50240</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>640</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>641</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>642</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>643</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -8413,13 +8413,13 @@
         <v>28995</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>643</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>644</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>645</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>646</v>
       </c>
       <c r="H11" s="7">
         <v>4</v>
@@ -8428,13 +8428,13 @@
         <v>2425</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>646</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>623</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>647</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>624</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>648</v>
       </c>
       <c r="M11" s="7">
         <v>23</v>
@@ -8443,13 +8443,13 @@
         <v>31420</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>648</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>649</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>650</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>651</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -8464,13 +8464,13 @@
         <v>17554</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>650</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>651</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>652</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>653</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>654</v>
       </c>
       <c r="H12" s="7">
         <v>10</v>
@@ -8479,13 +8479,13 @@
         <v>7461</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>653</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>654</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>655</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>656</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>657</v>
       </c>
       <c r="M12" s="7">
         <v>23</v>
@@ -8494,13 +8494,13 @@
         <v>25015</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>656</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>657</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>658</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>659</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>660</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -8568,13 +8568,13 @@
         <v>20475</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>280</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="H14" s="7">
         <v>46</v>
@@ -8583,13 +8583,13 @@
         <v>34838</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>661</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>662</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>663</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>664</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>665</v>
       </c>
       <c r="M14" s="7">
         <v>66</v>
@@ -8598,13 +8598,13 @@
         <v>55313</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>664</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>665</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>666</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>667</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>668</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -8619,13 +8619,13 @@
         <v>19761</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>667</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>668</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>669</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>670</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>671</v>
       </c>
       <c r="H15" s="7">
         <v>28</v>
@@ -8634,13 +8634,13 @@
         <v>22753</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>670</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>671</v>
+      </c>
+      <c r="L15" s="7" t="s">
         <v>672</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>673</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>674</v>
       </c>
       <c r="M15" s="7">
         <v>47</v>
@@ -8649,13 +8649,13 @@
         <v>42515</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>673</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>674</v>
+      </c>
+      <c r="Q15" s="7" t="s">
         <v>675</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>676</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>677</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -8670,13 +8670,13 @@
         <v>11118</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>446</v>
+        <v>677</v>
       </c>
       <c r="H16" s="7">
         <v>8</v>
@@ -8685,13 +8685,13 @@
         <v>5320</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>678</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>679</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>680</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>681</v>
       </c>
       <c r="M16" s="7">
         <v>20</v>
@@ -8700,13 +8700,13 @@
         <v>16438</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>681</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>682</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>683</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>684</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -8721,13 +8721,13 @@
         <v>18754</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>684</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>685</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>686</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>687</v>
       </c>
       <c r="H17" s="7">
         <v>5</v>
@@ -8736,13 +8736,13 @@
         <v>3128</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>356</v>
+        <v>687</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>689</v>
+        <v>262</v>
       </c>
       <c r="M17" s="7">
         <v>24</v>
@@ -8751,13 +8751,13 @@
         <v>21881</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>688</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>689</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>690</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>691</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>692</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -8813,7 +8813,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -8825,13 +8825,13 @@
         <v>62356</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>691</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>692</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>693</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>694</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>695</v>
       </c>
       <c r="H19" s="7">
         <v>82</v>
@@ -8840,13 +8840,13 @@
         <v>68239</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>694</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>695</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>696</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>697</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>698</v>
       </c>
       <c r="M19" s="7">
         <v>129</v>
@@ -8855,13 +8855,13 @@
         <v>130595</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>697</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>698</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>699</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>700</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>701</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -8876,13 +8876,13 @@
         <v>9574</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>702</v>
+        <v>325</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="H20" s="7">
         <v>6</v>
@@ -8891,13 +8891,13 @@
         <v>14897</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>705</v>
+        <v>382</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="M20" s="7">
         <v>12</v>
@@ -8906,13 +8906,13 @@
         <v>24471</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>708</v>
+        <v>123</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>710</v>
+        <v>705</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8927,13 +8927,13 @@
         <v>9977</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>711</v>
+        <v>555</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>712</v>
+        <v>706</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>713</v>
+        <v>707</v>
       </c>
       <c r="H21" s="7">
         <v>3</v>
@@ -8942,13 +8942,13 @@
         <v>2281</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>714</v>
+        <v>708</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>715</v>
+        <v>709</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>716</v>
+        <v>710</v>
       </c>
       <c r="M21" s="7">
         <v>10</v>
@@ -8957,10 +8957,10 @@
         <v>12258</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>717</v>
+        <v>711</v>
       </c>
       <c r="Q21" s="7" t="s">
         <v>422</v>
@@ -8978,13 +8978,13 @@
         <v>22700</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>421</v>
+        <v>713</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
       <c r="H22" s="7">
         <v>10</v>
@@ -8993,13 +8993,13 @@
         <v>7613</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="M22" s="7">
         <v>27</v>
@@ -9008,13 +9008,13 @@
         <v>30313</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>724</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -9070,7 +9070,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -9082,13 +9082,13 @@
         <v>20596</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>725</v>
+        <v>719</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>726</v>
+        <v>720</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
       <c r="H24" s="7">
         <v>61</v>
@@ -9097,13 +9097,13 @@
         <v>30729</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>728</v>
+        <v>722</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>729</v>
+        <v>723</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>730</v>
+        <v>724</v>
       </c>
       <c r="M24" s="7">
         <v>86</v>
@@ -9112,13 +9112,13 @@
         <v>51325</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>731</v>
+        <v>725</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>733</v>
+        <v>727</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -9133,13 +9133,13 @@
         <v>11549</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>495</v>
+        <v>728</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>384</v>
+        <v>578</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
       <c r="H25" s="7">
         <v>12</v>
@@ -9148,13 +9148,13 @@
         <v>5964</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>737</v>
+        <v>44</v>
       </c>
       <c r="M25" s="7">
         <v>28</v>
@@ -9163,13 +9163,13 @@
         <v>17512</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>738</v>
+        <v>732</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>739</v>
+        <v>733</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>740</v>
+        <v>734</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -9184,13 +9184,13 @@
         <v>4685</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>741</v>
+        <v>735</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>742</v>
+        <v>736</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
@@ -9199,13 +9199,13 @@
         <v>780</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>193</v>
+        <v>737</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="M26" s="7">
         <v>6</v>
@@ -9214,13 +9214,13 @@
         <v>5464</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -9235,13 +9235,13 @@
         <v>7922</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>357</v>
+        <v>743</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="H27" s="7">
         <v>10</v>
@@ -9253,10 +9253,10 @@
         <v>617</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="M27" s="7">
         <v>21</v>
@@ -9268,10 +9268,10 @@
         <v>222</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -9327,7 +9327,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -9339,13 +9339,13 @@
         <v>30079</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="H29" s="7">
         <v>47</v>
@@ -9354,13 +9354,13 @@
         <v>36477</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="M29" s="7">
         <v>79</v>
@@ -9369,13 +9369,13 @@
         <v>66556</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -9390,13 +9390,13 @@
         <v>15814</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
       <c r="H30" s="7">
         <v>14</v>
@@ -9405,13 +9405,13 @@
         <v>8857</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
       <c r="M30" s="7">
         <v>30</v>
@@ -9420,13 +9420,13 @@
         <v>24671</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>107</v>
+        <v>765</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -9441,13 +9441,13 @@
         <v>11171</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>299</v>
+        <v>546</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="H31" s="7">
         <v>6</v>
@@ -9456,13 +9456,13 @@
         <v>4754</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>279</v>
+        <v>771</v>
       </c>
       <c r="M31" s="7">
         <v>19</v>
@@ -9471,13 +9471,13 @@
         <v>15925</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -9492,13 +9492,13 @@
         <v>14553</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>774</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>775</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>776</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>777</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>778</v>
       </c>
       <c r="H32" s="7">
         <v>2</v>
@@ -9507,13 +9507,13 @@
         <v>1542</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="M32" s="7">
         <v>21</v>
@@ -9522,13 +9522,13 @@
         <v>16094</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>779</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>780</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>781</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>782</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>783</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -9584,7 +9584,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -9596,13 +9596,13 @@
         <v>92780</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>782</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>783</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>784</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>785</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>786</v>
       </c>
       <c r="H34" s="7">
         <v>163</v>
@@ -9611,13 +9611,13 @@
         <v>119896</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>785</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>786</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>787</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>788</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>789</v>
       </c>
       <c r="M34" s="7">
         <v>249</v>
@@ -9626,13 +9626,13 @@
         <v>212676</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>788</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>789</v>
+      </c>
+      <c r="Q34" s="7" t="s">
         <v>790</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>791</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>792</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -9647,13 +9647,13 @@
         <v>28578</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>118</v>
+        <v>791</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>793</v>
+        <v>103</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="H35" s="7">
         <v>19</v>
@@ -9662,13 +9662,13 @@
         <v>13753</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>793</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>794</v>
+      </c>
+      <c r="L35" s="7" t="s">
         <v>795</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>796</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>797</v>
       </c>
       <c r="M35" s="7">
         <v>43</v>
@@ -9677,13 +9677,13 @@
         <v>42331</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>218</v>
+        <v>796</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>513</v>
+        <v>797</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -9698,13 +9698,13 @@
         <v>12672</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>490</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>679</v>
+      </c>
+      <c r="G36" s="7" t="s">
         <v>798</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>680</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>35</v>
       </c>
       <c r="H36" s="7">
         <v>9</v>
@@ -9731,7 +9731,7 @@
         <v>616</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="Q36" s="7" t="s">
         <v>802</v>
@@ -9782,7 +9782,7 @@
         <v>809</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="Q37" s="7" t="s">
         <v>810</v>
@@ -9955,13 +9955,13 @@
         <v>48677</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>572</v>
+        <v>828</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>828</v>
+        <v>361</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H41" s="7">
         <v>16</v>
@@ -10012,7 +10012,7 @@
         <v>836</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>837</v>
+        <v>505</v>
       </c>
       <c r="H42" s="7">
         <v>14</v>
@@ -10021,13 +10021,13 @@
         <v>12629</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="K42" s="7" t="s">
+        <v>837</v>
+      </c>
+      <c r="L42" s="7" t="s">
         <v>838</v>
-      </c>
-      <c r="L42" s="7" t="s">
-        <v>839</v>
       </c>
       <c r="M42" s="7">
         <v>59</v>
@@ -10036,7 +10036,7 @@
         <v>114780</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>539</v>
+        <v>839</v>
       </c>
       <c r="P42" s="7" t="s">
         <v>840</v>
@@ -10230,7 +10230,7 @@
         <v>861</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="L46" s="7" t="s">
         <v>862</v>
@@ -10248,7 +10248,7 @@
         <v>864</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>708</v>
+        <v>123</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -10263,7 +10263,7 @@
         <v>217216</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="F47" s="7" t="s">
         <v>865</v>
@@ -10284,7 +10284,7 @@
         <v>868</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M47" s="7">
         <v>221</v>
@@ -10293,7 +10293,7 @@
         <v>264731</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="P47" s="7" t="s">
         <v>869</v>
